--- a/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
+++ b/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EC1FE5-8559-46C6-9889-2DBC60564605}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CCA63B2-1214-409A-9D3B-49C94DB1D022}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9410" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9409" uniqueCount="1858">
   <si>
     <t>Species</t>
   </si>
@@ -38387,9 +38387,6 @@
   </si>
   <si>
     <t>MG570132.1</t>
-  </si>
-  <si>
-    <t>MK098185.1</t>
   </si>
   <si>
     <t>MK098186.1</t>
@@ -41625,12 +41622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DAEBFD-78AC-4E24-A1EF-CD140122AED7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X134" sqref="X134"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41734,7 +41730,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1608</v>
       </c>
@@ -41784,19 +41780,19 @@
         <v>1665</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>1791</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="10" t="s">
         <v>1771</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>1772</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>1773</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" t="s">
@@ -41806,7 +41802,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -41865,7 +41861,7 @@
         <v>1390</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>26</v>
@@ -41877,7 +41873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -41936,7 +41932,7 @@
         <v>1398</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>25</v>
@@ -41951,7 +41947,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>1607</v>
       </c>
@@ -41995,13 +41991,13 @@
         <v>376</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="P5" s="20" t="s">
         <v>1657</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="R5">
         <v>2004</v>
@@ -42010,16 +42006,16 @@
         <v>1417</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>1776</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>1777</v>
       </c>
       <c r="X5" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -42078,7 +42074,7 @@
         <v>1396</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>29</v>
@@ -42093,7 +42089,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -42167,7 +42163,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -42217,7 +42213,7 @@
         <v>7</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="R8" s="3">
         <v>2002</v>
@@ -42226,7 +42222,7 @@
         <v>1388</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>1389</v>
@@ -42239,7 +42235,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -42313,7 +42309,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -42379,7 +42375,7 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>1611</v>
       </c>
@@ -42423,13 +42419,13 @@
         <v>376</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="R11" s="2">
         <v>2013</v>
@@ -42441,10 +42437,10 @@
         <v>27</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>27</v>
@@ -42453,7 +42449,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>1621</v>
       </c>
@@ -42497,13 +42493,13 @@
         <v>376</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R12" s="2">
         <v>2014</v>
@@ -42515,10 +42511,10 @@
         <v>27</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>27</v>
@@ -42527,12 +42523,12 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>802</v>
       </c>
       <c r="B13" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -42586,7 +42582,7 @@
         <v>1714</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>843</v>
@@ -42601,12 +42597,12 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -42666,12 +42662,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -42731,12 +42727,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -42796,12 +42792,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -42861,12 +42857,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -42926,12 +42922,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -42991,12 +42987,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -43056,12 +43052,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -43121,12 +43117,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -43186,12 +43182,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -43251,12 +43247,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -43316,12 +43312,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -43381,12 +43377,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -43446,12 +43442,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -43491,7 +43487,7 @@
         <v>115</v>
       </c>
       <c r="P27" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>116</v>
@@ -43503,7 +43499,7 @@
         <v>1417</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>129</v>
@@ -43515,12 +43511,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -43584,12 +43580,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -43650,12 +43646,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -43715,12 +43711,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="202.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="202.2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -43780,12 +43776,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -43845,12 +43841,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -43913,15 +43909,15 @@
         <v>153</v>
       </c>
       <c r="X33" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1689</v>
       </c>
       <c r="B34" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -43979,15 +43975,15 @@
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -44041,12 +44037,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -44106,12 +44102,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -44171,12 +44167,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -44236,12 +44232,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -44265,7 +44261,7 @@
         <v>903</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K39" t="s">
         <v>1484</v>
@@ -44295,12 +44291,12 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -44360,12 +44356,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -44425,12 +44421,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -44490,12 +44486,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>180</v>
       </c>
       <c r="B43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -44555,12 +44551,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -44620,12 +44616,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -44685,12 +44681,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -44750,12 +44746,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -44815,12 +44811,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -44880,12 +44876,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -44945,12 +44941,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -45010,12 +45006,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -45075,12 +45071,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -45140,12 +45136,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -45205,12 +45201,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>205</v>
       </c>
       <c r="B54" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -45270,12 +45266,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -45335,12 +45331,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -45400,12 +45396,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -45465,12 +45461,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -45528,12 +45524,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -45593,12 +45589,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>226</v>
       </c>
       <c r="B60" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -45658,12 +45654,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>228</v>
       </c>
       <c r="B61" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -45723,12 +45719,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -45788,12 +45784,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -45853,12 +45849,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>236</v>
       </c>
       <c r="B64" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -45918,12 +45914,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -45983,12 +45979,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -46048,12 +46044,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>242</v>
       </c>
       <c r="B67" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -46113,12 +46109,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>243</v>
       </c>
       <c r="B68" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -46178,12 +46174,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -46243,12 +46239,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>246</v>
       </c>
       <c r="B70" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -46308,12 +46304,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -46373,12 +46369,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -46438,12 +46434,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -46503,12 +46499,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -46568,12 +46564,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -46633,12 +46629,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>261</v>
       </c>
       <c r="B76" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -46698,12 +46694,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>264</v>
       </c>
       <c r="B77" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -46764,12 +46760,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>268</v>
       </c>
       <c r="B78" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -46830,12 +46826,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>276</v>
       </c>
       <c r="B79" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -46896,12 +46892,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>288</v>
       </c>
       <c r="B80" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -46962,12 +46958,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -47028,12 +47024,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -47094,12 +47090,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -47160,12 +47156,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>292</v>
       </c>
       <c r="B84" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -47226,12 +47222,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -47292,12 +47288,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -47358,12 +47354,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>295</v>
       </c>
       <c r="B87" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -47424,12 +47420,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>296</v>
       </c>
       <c r="B88" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -47490,12 +47486,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>297</v>
       </c>
       <c r="B89" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -47556,12 +47552,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>298</v>
       </c>
       <c r="B90" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -47622,7 +47618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
         <v>1613</v>
       </c>
@@ -47669,7 +47665,7 @@
         <v>7</v>
       </c>
       <c r="P91" s="20" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>376</v>
@@ -47696,7 +47692,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -47770,7 +47766,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
         <v>1583</v>
       </c>
@@ -47778,7 +47774,7 @@
         <v>1615</v>
       </c>
       <c r="C93" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D93" s="34" t="s">
         <v>1546</v>
@@ -47833,12 +47829,12 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -47899,12 +47895,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -47965,7 +47961,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
         <v>1693</v>
       </c>
@@ -48036,12 +48032,12 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>318</v>
       </c>
       <c r="B97" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -48102,12 +48098,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -48168,7 +48164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
         <v>1614</v>
       </c>
@@ -48215,25 +48211,25 @@
         <v>1619</v>
       </c>
       <c r="P99" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="S99" s="10" t="s">
+        <v>1792</v>
+      </c>
+      <c r="T99" s="10" t="s">
         <v>1793</v>
       </c>
-      <c r="T99" s="10" t="s">
+      <c r="U99" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="U99" s="2" t="s">
-        <v>1795</v>
-      </c>
       <c r="V99" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W99" s="2" t="s">
         <v>27</v>
@@ -48242,12 +48238,12 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>329</v>
       </c>
       <c r="B100" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -48271,7 +48267,7 @@
         <v>4492</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>1509</v>
@@ -48308,12 +48304,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -48374,12 +48370,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>334</v>
       </c>
       <c r="B102" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -48440,12 +48436,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>338</v>
       </c>
       <c r="B103" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -48506,12 +48502,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -48572,12 +48568,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>344</v>
       </c>
       <c r="B105" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -48638,12 +48634,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>345</v>
       </c>
       <c r="B106" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -48704,12 +48700,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>352</v>
       </c>
       <c r="B107" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -48770,12 +48766,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>353</v>
       </c>
       <c r="B108" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -48836,12 +48832,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>354</v>
       </c>
       <c r="B109" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -48902,12 +48898,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>355</v>
       </c>
       <c r="B110" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -48968,12 +48964,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>356</v>
       </c>
       <c r="B111" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -49034,12 +49030,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>357</v>
       </c>
       <c r="B112" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -49100,12 +49096,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>364</v>
       </c>
       <c r="B113" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -49166,12 +49162,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>368</v>
       </c>
       <c r="B114" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -49232,12 +49228,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>371</v>
       </c>
       <c r="B115" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -49298,12 +49294,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>377</v>
       </c>
       <c r="B116" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -49364,12 +49360,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>379</v>
       </c>
       <c r="B117" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -49430,12 +49426,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>380</v>
       </c>
       <c r="B118" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -49496,12 +49492,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -49562,12 +49558,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -49628,12 +49624,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -49694,12 +49690,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>385</v>
       </c>
       <c r="B122" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -49760,12 +49756,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>386</v>
       </c>
       <c r="B123" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -49822,12 +49818,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1233</v>
       </c>
       <c r="B124" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -49896,12 +49892,12 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1238</v>
       </c>
       <c r="B125" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -49970,12 +49966,12 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>407</v>
       </c>
       <c r="B126" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -50036,12 +50032,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1440</v>
       </c>
       <c r="B127" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -50105,12 +50101,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>411</v>
       </c>
       <c r="B128" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -50171,12 +50167,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>413</v>
       </c>
       <c r="B129" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -50237,12 +50233,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>415</v>
       </c>
       <c r="B130" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -50303,12 +50299,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>417</v>
       </c>
       <c r="B131" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -50369,12 +50365,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>419</v>
       </c>
       <c r="B132" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -50435,12 +50431,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>421</v>
       </c>
       <c r="B133" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -50571,16 +50567,13 @@
       <c r="W134" t="s">
         <v>27</v>
       </c>
-      <c r="X134" t="s">
-        <v>1736</v>
-      </c>
     </row>
-    <row r="135" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>401</v>
       </c>
       <c r="B135" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -50646,15 +50639,15 @@
         <v>27</v>
       </c>
       <c r="X135" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>403</v>
       </c>
       <c r="B136" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -50720,10 +50713,10 @@
         <v>27</v>
       </c>
       <c r="X136" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>63</v>
       </c>
@@ -50794,15 +50787,15 @@
         <v>1543</v>
       </c>
       <c r="X137" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>431</v>
       </c>
       <c r="B138" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -50863,12 +50856,12 @@
         <v>620</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>433</v>
       </c>
       <c r="B139" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -50929,12 +50922,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>435</v>
       </c>
       <c r="B140" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -50995,12 +50988,12 @@
         <v>622</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>437</v>
       </c>
       <c r="B141" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -51061,12 +51054,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>439</v>
       </c>
       <c r="B142" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -51127,12 +51120,12 @@
         <v>624</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>441</v>
       </c>
       <c r="B143" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -51193,12 +51186,12 @@
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>443</v>
       </c>
       <c r="B144" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -51259,12 +51252,12 @@
         <v>626</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>445</v>
       </c>
       <c r="B145" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -51325,12 +51318,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>447</v>
       </c>
       <c r="B146" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -51391,12 +51384,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>449</v>
       </c>
       <c r="B147" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -51457,12 +51450,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>451</v>
       </c>
       <c r="B148" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -51523,12 +51516,12 @@
         <v>630</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>453</v>
       </c>
       <c r="B149" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -51589,12 +51582,12 @@
         <v>631</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>455</v>
       </c>
       <c r="B150" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -51655,12 +51648,12 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>457</v>
       </c>
       <c r="B151" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -51721,12 +51714,12 @@
         <v>633</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>459</v>
       </c>
       <c r="B152" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -51787,12 +51780,12 @@
         <v>634</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>460</v>
       </c>
       <c r="B153" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -51853,12 +51846,12 @@
         <v>635</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>461</v>
       </c>
       <c r="B154" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -51919,12 +51912,12 @@
         <v>636</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>462</v>
       </c>
       <c r="B155" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -51985,12 +51978,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -52051,12 +52044,12 @@
         <v>638</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>464</v>
       </c>
       <c r="B157" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
@@ -52117,12 +52110,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -52183,12 +52176,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -52249,12 +52242,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -52315,12 +52308,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -52381,12 +52374,12 @@
         <v>643</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>469</v>
       </c>
       <c r="B162" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -52447,12 +52440,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>470</v>
       </c>
       <c r="B163" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -52513,12 +52506,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -52579,12 +52572,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -52645,12 +52638,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -52711,12 +52704,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>474</v>
       </c>
       <c r="B167" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -52777,12 +52770,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>475</v>
       </c>
       <c r="B168" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -52843,12 +52836,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -52909,12 +52902,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -52975,12 +52968,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>478</v>
       </c>
       <c r="B171" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -53041,12 +53034,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>479</v>
       </c>
       <c r="B172" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -53107,12 +53100,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>480</v>
       </c>
       <c r="B173" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -53173,12 +53166,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>481</v>
       </c>
       <c r="B174" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -53239,12 +53232,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>482</v>
       </c>
       <c r="B175" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -53305,12 +53298,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>483</v>
       </c>
       <c r="B176" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -53371,12 +53364,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>484</v>
       </c>
       <c r="B177" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -53437,12 +53430,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>485</v>
       </c>
       <c r="B178" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -53503,12 +53496,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>486</v>
       </c>
       <c r="B179" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -53569,12 +53562,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>487</v>
       </c>
       <c r="B180" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -53635,12 +53628,12 @@
         <v>653</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>489</v>
       </c>
       <c r="B181" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -53701,12 +53694,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -53767,12 +53760,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -53833,12 +53826,12 @@
         <v>656</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>492</v>
       </c>
       <c r="B184" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -53899,12 +53892,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>494</v>
       </c>
       <c r="B185" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -53965,7 +53958,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>68</v>
       </c>
@@ -54036,15 +54029,15 @@
         <v>1542</v>
       </c>
       <c r="X186" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>496</v>
       </c>
       <c r="B187" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -54105,12 +54098,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>498</v>
       </c>
       <c r="B188" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -54167,12 +54160,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>499</v>
       </c>
       <c r="B189" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -54202,7 +54195,7 @@
         <v>1062</v>
       </c>
       <c r="L189" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="M189" s="8"/>
       <c r="N189" s="8">
@@ -54231,12 +54224,12 @@
         <v>664</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>500</v>
       </c>
       <c r="B190" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -54297,12 +54290,12 @@
         <v>670</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>501</v>
       </c>
       <c r="B191" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -54354,12 +54347,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>502</v>
       </c>
       <c r="B192" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -54411,12 +54404,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>503</v>
       </c>
       <c r="B193" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -54468,12 +54461,12 @@
         <v>675</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>504</v>
       </c>
       <c r="B194" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -54525,12 +54518,12 @@
         <v>676</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>505</v>
       </c>
       <c r="B195" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -54582,12 +54575,12 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>506</v>
       </c>
       <c r="B196" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -54639,12 +54632,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>507</v>
       </c>
       <c r="B197" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -54696,12 +54689,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>508</v>
       </c>
       <c r="B198" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C198" t="s">
         <v>4</v>
@@ -54753,12 +54746,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>509</v>
       </c>
       <c r="B199" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -54819,12 +54812,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>510</v>
       </c>
       <c r="B200" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -54885,12 +54878,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>512</v>
       </c>
       <c r="B201" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
@@ -54951,12 +54944,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>514</v>
       </c>
       <c r="B202" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -54977,7 +54970,7 @@
         <v>570</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>1471</v>
@@ -55014,12 +55007,12 @@
         <v>684</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>515</v>
       </c>
       <c r="B203" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -55080,12 +55073,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>517</v>
       </c>
       <c r="B204" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C204" t="s">
         <v>4</v>
@@ -55146,12 +55139,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>518</v>
       </c>
       <c r="B205" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C205" t="s">
         <v>4</v>
@@ -55212,12 +55205,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>519</v>
       </c>
       <c r="B206" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C206" t="s">
         <v>4</v>
@@ -55278,12 +55271,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>521</v>
       </c>
       <c r="B207" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C207" t="s">
         <v>4</v>
@@ -55344,12 +55337,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>522</v>
       </c>
       <c r="B208" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C208" t="s">
         <v>4</v>
@@ -55410,12 +55403,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>523</v>
       </c>
       <c r="B209" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -55476,12 +55469,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>525</v>
       </c>
       <c r="B210" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -55542,12 +55535,12 @@
         <v>696</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>526</v>
       </c>
       <c r="B211" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -55608,12 +55601,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>527</v>
       </c>
       <c r="B212" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -55674,12 +55667,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>529</v>
       </c>
       <c r="B213" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
@@ -55740,12 +55733,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>530</v>
       </c>
       <c r="B214" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -55806,12 +55799,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>531</v>
       </c>
       <c r="B215" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C215" t="s">
         <v>4</v>
@@ -55872,12 +55865,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>533</v>
       </c>
       <c r="B216" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -55938,12 +55931,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>534</v>
       </c>
       <c r="B217" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -56004,12 +55997,12 @@
         <v>701</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>535</v>
       </c>
       <c r="B218" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -56070,12 +56063,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>537</v>
       </c>
       <c r="B219" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -56136,12 +56129,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>538</v>
       </c>
       <c r="B220" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -56202,12 +56195,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>539</v>
       </c>
       <c r="B221" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -56268,12 +56261,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>541</v>
       </c>
       <c r="B222" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -56334,12 +56327,12 @@
         <v>705</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>542</v>
       </c>
       <c r="B223" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
@@ -56400,12 +56393,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>543</v>
       </c>
       <c r="B224" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -56466,12 +56459,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>545</v>
       </c>
       <c r="B225" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -56532,12 +56525,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>546</v>
       </c>
       <c r="B226" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C226" t="s">
         <v>4</v>
@@ -56595,12 +56588,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>547</v>
       </c>
       <c r="B227" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C227" t="s">
         <v>4</v>
@@ -56660,12 +56653,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>548</v>
       </c>
       <c r="B228" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
@@ -56725,12 +56718,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>549</v>
       </c>
       <c r="B229" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C229" t="s">
         <v>4</v>
@@ -56790,12 +56783,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>550</v>
       </c>
       <c r="B230" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C230" t="s">
         <v>4</v>
@@ -56855,12 +56848,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>551</v>
       </c>
       <c r="B231" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C231" t="s">
         <v>4</v>
@@ -56920,12 +56913,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>552</v>
       </c>
       <c r="B232" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C232" t="s">
         <v>4</v>
@@ -56985,12 +56978,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>553</v>
       </c>
       <c r="B233" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C233" t="s">
         <v>4</v>
@@ -57050,12 +57043,12 @@
         <v>716</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>554</v>
       </c>
       <c r="B234" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C234" t="s">
         <v>4</v>
@@ -57115,12 +57108,12 @@
         <v>717</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>555</v>
       </c>
       <c r="B235" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C235" t="s">
         <v>4</v>
@@ -57180,12 +57173,12 @@
         <v>718</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>556</v>
       </c>
       <c r="B236" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C236" t="s">
         <v>4</v>
@@ -57245,12 +57238,12 @@
         <v>719</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>557</v>
       </c>
       <c r="B237" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C237" t="s">
         <v>4</v>
@@ -57310,12 +57303,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>558</v>
       </c>
       <c r="B238" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C238" t="s">
         <v>4</v>
@@ -57375,12 +57368,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>559</v>
       </c>
       <c r="B239" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C239" t="s">
         <v>4</v>
@@ -57440,12 +57433,12 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>560</v>
       </c>
       <c r="B240" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -57505,12 +57498,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>561</v>
       </c>
       <c r="B241" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C241" t="s">
         <v>4</v>
@@ -57570,12 +57563,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>562</v>
       </c>
       <c r="B242" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C242" t="s">
         <v>4</v>
@@ -57635,12 +57628,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>563</v>
       </c>
       <c r="B243" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C243" t="s">
         <v>4</v>
@@ -57700,12 +57693,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>564</v>
       </c>
       <c r="B244" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C244" t="s">
         <v>4</v>
@@ -57765,12 +57758,12 @@
         <v>727</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>565</v>
       </c>
       <c r="B245" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C245" t="s">
         <v>4</v>
@@ -57828,12 +57821,12 @@
         <v>728</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>566</v>
       </c>
       <c r="B246" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C246" t="s">
         <v>4</v>
@@ -57893,12 +57886,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>567</v>
       </c>
       <c r="B247" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C247" t="s">
         <v>4</v>
@@ -57958,12 +57951,12 @@
         <v>730</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>568</v>
       </c>
       <c r="B248" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C248" t="s">
         <v>4</v>
@@ -58023,12 +58016,12 @@
         <v>732</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>569</v>
       </c>
       <c r="B249" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C249" t="s">
         <v>4</v>
@@ -58088,12 +58081,12 @@
         <v>731</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>570</v>
       </c>
       <c r="B250" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C250" t="s">
         <v>4</v>
@@ -58153,12 +58146,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>571</v>
       </c>
       <c r="B251" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C251" t="s">
         <v>4</v>
@@ -58218,12 +58211,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>572</v>
       </c>
       <c r="B252" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C252" t="s">
         <v>4</v>
@@ -58283,12 +58276,12 @@
         <v>735</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>573</v>
       </c>
       <c r="B253" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C253" t="s">
         <v>4</v>
@@ -58348,12 +58341,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>574</v>
       </c>
       <c r="B254" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C254" t="s">
         <v>4</v>
@@ -58413,12 +58406,12 @@
         <v>737</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>575</v>
       </c>
       <c r="B255" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C255" t="s">
         <v>4</v>
@@ -58478,12 +58471,12 @@
         <v>738</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>576</v>
       </c>
       <c r="B256" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C256" t="s">
         <v>4</v>
@@ -58543,12 +58536,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>577</v>
       </c>
       <c r="B257" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C257" t="s">
         <v>4</v>
@@ -58608,12 +58601,12 @@
         <v>740</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>578</v>
       </c>
       <c r="B258" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C258" t="s">
         <v>4</v>
@@ -58673,12 +58666,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>579</v>
       </c>
       <c r="B259" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C259" t="s">
         <v>4</v>
@@ -58738,12 +58731,12 @@
         <v>742</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>580</v>
       </c>
       <c r="B260" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C260" t="s">
         <v>4</v>
@@ -58803,12 +58796,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>581</v>
       </c>
       <c r="B261" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C261" t="s">
         <v>4</v>
@@ -58868,12 +58861,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>582</v>
       </c>
       <c r="B262" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C262" t="s">
         <v>4</v>
@@ -58933,12 +58926,12 @@
         <v>745</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>583</v>
       </c>
       <c r="B263" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C263" t="s">
         <v>4</v>
@@ -58998,12 +58991,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>584</v>
       </c>
       <c r="B264" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C264" t="s">
         <v>4</v>
@@ -59063,12 +59056,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>586</v>
       </c>
       <c r="B265" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C265" t="s">
         <v>4</v>
@@ -59132,12 +59125,12 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>587</v>
       </c>
       <c r="B266" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C266" t="s">
         <v>4</v>
@@ -59201,12 +59194,12 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>588</v>
       </c>
       <c r="B267" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C267" t="s">
         <v>4</v>
@@ -59267,12 +59260,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>589</v>
       </c>
       <c r="B268" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C268" t="s">
         <v>4</v>
@@ -59333,12 +59326,12 @@
         <v>767</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>590</v>
       </c>
       <c r="B269" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C269" t="s">
         <v>4</v>
@@ -59390,7 +59383,7 @@
       </c>
       <c r="S269" s="10"/>
       <c r="T269" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="U269" s="2" t="s">
         <v>769</v>
@@ -59399,12 +59392,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>591</v>
       </c>
       <c r="B270" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C270" t="s">
         <v>4</v>
@@ -59465,12 +59458,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>592</v>
       </c>
       <c r="B271" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C271" t="s">
         <v>4</v>
@@ -59522,7 +59515,7 @@
       </c>
       <c r="S271" s="10"/>
       <c r="T271" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="U271" s="2" t="s">
         <v>776</v>
@@ -59531,12 +59524,12 @@
         <v>775</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>593</v>
       </c>
       <c r="B272" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C272" t="s">
         <v>4</v>
@@ -59597,12 +59590,12 @@
         <v>779</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>594</v>
       </c>
       <c r="B273" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C273" t="s">
         <v>4</v>
@@ -59663,12 +59656,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>595</v>
       </c>
       <c r="B274" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C274" t="s">
         <v>4</v>
@@ -59729,12 +59722,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>596</v>
       </c>
       <c r="B275" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C275" t="s">
         <v>4</v>
@@ -59795,12 +59788,12 @@
         <v>783</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>597</v>
       </c>
       <c r="B276" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C276" t="s">
         <v>4</v>
@@ -59861,12 +59854,12 @@
         <v>784</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>598</v>
       </c>
       <c r="B277" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C277" t="s">
         <v>4</v>
@@ -59930,12 +59923,12 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>599</v>
       </c>
       <c r="B278" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C278" t="s">
         <v>4</v>
@@ -59996,12 +59989,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>600</v>
       </c>
       <c r="B279" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C279" t="s">
         <v>4</v>
@@ -60062,12 +60055,12 @@
         <v>788</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>601</v>
       </c>
       <c r="B280" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C280" t="s">
         <v>4</v>
@@ -60128,12 +60121,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>602</v>
       </c>
       <c r="B281" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C281" t="s">
         <v>4</v>
@@ -60194,12 +60187,12 @@
         <v>790</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>603</v>
       </c>
       <c r="B282" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
@@ -60260,12 +60253,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>604</v>
       </c>
       <c r="B283" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C283" t="s">
         <v>4</v>
@@ -60329,12 +60322,12 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>605</v>
       </c>
       <c r="B284" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C284" t="s">
         <v>4</v>
@@ -60398,12 +60391,12 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>606</v>
       </c>
       <c r="B285" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C285" t="s">
         <v>4</v>
@@ -60467,12 +60460,12 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>607</v>
       </c>
       <c r="B286" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C286" t="s">
         <v>4</v>
@@ -60536,12 +60529,12 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>800</v>
       </c>
       <c r="B287" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C287" t="s">
         <v>4</v>
@@ -60602,12 +60595,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1046</v>
       </c>
       <c r="B288" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C288" t="s">
         <v>4</v>
@@ -60670,15 +60663,15 @@
         <v>1085</v>
       </c>
       <c r="X288" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>804</v>
       </c>
       <c r="B289" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C289" t="s">
         <v>4</v>
@@ -60739,12 +60732,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>805</v>
       </c>
       <c r="B290" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C290" t="s">
         <v>4</v>
@@ -60805,12 +60798,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>806</v>
       </c>
       <c r="B291" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C291" t="s">
         <v>4</v>
@@ -60871,12 +60864,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>807</v>
       </c>
       <c r="B292" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C292" t="s">
         <v>4</v>
@@ -60937,12 +60930,12 @@
         <v>851</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>808</v>
       </c>
       <c r="B293" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C293" t="s">
         <v>4</v>
@@ -61003,12 +60996,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>809</v>
       </c>
       <c r="B294" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C294" t="s">
         <v>4</v>
@@ -61068,12 +61061,12 @@
         <v>854</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>811</v>
       </c>
       <c r="B295" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C295" t="s">
         <v>4</v>
@@ -61134,12 +61127,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>812</v>
       </c>
       <c r="B296" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C296" t="s">
         <v>4</v>
@@ -61200,12 +61193,12 @@
         <v>856</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>813</v>
       </c>
       <c r="B297" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C297" t="s">
         <v>4</v>
@@ -61266,12 +61259,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>814</v>
       </c>
       <c r="B298" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C298" t="s">
         <v>4</v>
@@ -61322,7 +61315,7 @@
         <v>2011</v>
       </c>
       <c r="T298" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="U298" s="2" t="s">
         <v>175</v>
@@ -61331,12 +61324,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>815</v>
       </c>
       <c r="B299" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C299" t="s">
         <v>4</v>
@@ -61397,12 +61390,12 @@
         <v>860</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>816</v>
       </c>
       <c r="B300" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C300" t="s">
         <v>4</v>
@@ -61462,12 +61455,12 @@
         <v>862</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>818</v>
       </c>
       <c r="B301" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C301" t="s">
         <v>4</v>
@@ -61527,12 +61520,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>820</v>
       </c>
       <c r="B302" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C302" t="s">
         <v>4</v>
@@ -61592,12 +61585,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>822</v>
       </c>
       <c r="B303" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C303" t="s">
         <v>4</v>
@@ -61657,12 +61650,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>824</v>
       </c>
       <c r="B304" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C304" t="s">
         <v>4</v>
@@ -61722,12 +61715,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>826</v>
       </c>
       <c r="B305" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C305" t="s">
         <v>4</v>
@@ -61787,12 +61780,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>828</v>
       </c>
       <c r="B306" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C306" t="s">
         <v>4</v>
@@ -61852,12 +61845,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>830</v>
       </c>
       <c r="B307" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C307" t="s">
         <v>4</v>
@@ -61917,12 +61910,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>832</v>
       </c>
       <c r="B308" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C308" t="s">
         <v>4</v>
@@ -61982,12 +61975,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>834</v>
       </c>
       <c r="B309" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C309" t="s">
         <v>4</v>
@@ -62047,12 +62040,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>836</v>
       </c>
       <c r="B310" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C310" t="s">
         <v>4</v>
@@ -62112,12 +62105,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>873</v>
       </c>
       <c r="B311" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C311" t="s">
         <v>4</v>
@@ -62179,12 +62172,12 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>875</v>
       </c>
       <c r="B312" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C312" t="s">
         <v>4</v>
@@ -62248,12 +62241,12 @@
       </c>
       <c r="X312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>876</v>
       </c>
       <c r="B313" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C313" t="s">
         <v>4</v>
@@ -62314,12 +62307,12 @@
       </c>
       <c r="X313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>877</v>
       </c>
       <c r="B314" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C314" t="s">
         <v>4</v>
@@ -62380,12 +62373,12 @@
       </c>
       <c r="X314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>878</v>
       </c>
       <c r="B315" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C315" t="s">
         <v>4</v>
@@ -62444,12 +62437,12 @@
       </c>
       <c r="X315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>879</v>
       </c>
       <c r="B316" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C316" t="s">
         <v>4</v>
@@ -62508,12 +62501,12 @@
       </c>
       <c r="X316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>880</v>
       </c>
       <c r="B317" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C317" t="s">
         <v>4</v>
@@ -62574,12 +62567,12 @@
       </c>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>881</v>
       </c>
       <c r="B318" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C318" t="s">
         <v>4</v>
@@ -62641,12 +62634,12 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>883</v>
       </c>
       <c r="B319" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C319" t="s">
         <v>4</v>
@@ -62708,12 +62701,12 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>886</v>
       </c>
       <c r="B320" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C320" t="s">
         <v>4</v>
@@ -62772,12 +62765,12 @@
       </c>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>887</v>
       </c>
       <c r="B321" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C321" t="s">
         <v>4</v>
@@ -62839,7 +62832,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" ht="144" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1701</v>
       </c>
@@ -62847,7 +62840,7 @@
         <v>1694</v>
       </c>
       <c r="C322" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>1702</v>
@@ -62898,24 +62891,24 @@
         <v>1403</v>
       </c>
       <c r="T322" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="U322" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V322" t="s">
         <v>1797</v>
       </c>
-      <c r="U322" s="2" t="s">
-        <v>1796</v>
-      </c>
-      <c r="V322" t="s">
-        <v>1798</v>
-      </c>
       <c r="X322" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>892</v>
       </c>
       <c r="B323" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C323" t="s">
         <v>4</v>
@@ -62966,7 +62959,7 @@
         <v>2014</v>
       </c>
       <c r="T323" s="9" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="U323" s="2" t="s">
         <v>920</v>
@@ -62976,12 +62969,12 @@
       </c>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>894</v>
       </c>
       <c r="B324" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C324" t="s">
         <v>4</v>
@@ -63042,12 +63035,12 @@
       </c>
       <c r="X324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>895</v>
       </c>
       <c r="B325" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C325" t="s">
         <v>4</v>
@@ -63108,12 +63101,12 @@
       </c>
       <c r="X325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>921</v>
       </c>
       <c r="B326" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C326" t="s">
         <v>4</v>
@@ -63174,12 +63167,12 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>923</v>
       </c>
       <c r="B327" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C327" t="s">
         <v>4</v>
@@ -63240,12 +63233,12 @@
         <v>928</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" ht="144" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>924</v>
       </c>
       <c r="B328" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C328" t="s">
         <v>4</v>
@@ -63306,12 +63299,12 @@
         <v>930</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>931</v>
       </c>
       <c r="B329" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C329" t="s">
         <v>4</v>
@@ -63368,15 +63361,15 @@
         <v>935</v>
       </c>
       <c r="V329" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>933</v>
       </c>
       <c r="B330" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C330" t="s">
         <v>4</v>
@@ -63433,15 +63426,15 @@
         <v>935</v>
       </c>
       <c r="V330" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>934</v>
       </c>
       <c r="B331" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C331" t="s">
         <v>4</v>
@@ -63498,15 +63491,15 @@
         <v>935</v>
       </c>
       <c r="V331" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>939</v>
       </c>
       <c r="B332" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C332" t="s">
         <v>4</v>
@@ -63566,12 +63559,12 @@
         <v>948</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>946</v>
       </c>
       <c r="B333" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C333" t="s">
         <v>4</v>
@@ -63630,12 +63623,12 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>949</v>
       </c>
       <c r="B334" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C334" t="s">
         <v>4</v>
@@ -63696,12 +63689,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>955</v>
       </c>
       <c r="B335" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C335" t="s">
         <v>4</v>
@@ -63762,12 +63755,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>957</v>
       </c>
       <c r="B336" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C336" t="s">
         <v>4</v>
@@ -63828,12 +63821,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>959</v>
       </c>
       <c r="B337" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C337" t="s">
         <v>4</v>
@@ -63894,12 +63887,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>961</v>
       </c>
       <c r="B338" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C338" t="s">
         <v>4</v>
@@ -63960,12 +63953,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="339" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>963</v>
       </c>
       <c r="B339" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C339" t="s">
         <v>4</v>
@@ -64026,12 +64019,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="340" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>965</v>
       </c>
       <c r="B340" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C340" t="s">
         <v>4</v>
@@ -64092,12 +64085,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="341" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>967</v>
       </c>
       <c r="B341" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C341" t="s">
         <v>4</v>
@@ -64158,12 +64151,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="342" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>969</v>
       </c>
       <c r="B342" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C342" t="s">
         <v>4</v>
@@ -64224,12 +64217,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="343" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>971</v>
       </c>
       <c r="B343" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C343" t="s">
         <v>4</v>
@@ -64290,12 +64283,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>973</v>
       </c>
       <c r="B344" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C344" t="s">
         <v>4</v>
@@ -64356,12 +64349,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="345" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>975</v>
       </c>
       <c r="B345" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C345" t="s">
         <v>4</v>
@@ -64422,12 +64415,12 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="346" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>977</v>
       </c>
       <c r="B346" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C346" t="s">
         <v>4</v>
@@ -64487,12 +64480,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>982</v>
       </c>
       <c r="B347" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C347" t="s">
         <v>4</v>
@@ -64552,12 +64545,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>986</v>
       </c>
       <c r="B348" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C348" t="s">
         <v>4</v>
@@ -64617,12 +64610,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>990</v>
       </c>
       <c r="B349" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C349" t="s">
         <v>4</v>
@@ -64682,12 +64675,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="350" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>991</v>
       </c>
       <c r="B350" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C350" t="s">
         <v>4</v>
@@ -64747,12 +64740,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="351" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>992</v>
       </c>
       <c r="B351" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C351" t="s">
         <v>4</v>
@@ -64812,12 +64805,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="352" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>993</v>
       </c>
       <c r="B352" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C352" t="s">
         <v>4</v>
@@ -64877,12 +64870,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>995</v>
       </c>
       <c r="B353" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C353" t="s">
         <v>4</v>
@@ -64942,12 +64935,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1042</v>
       </c>
       <c r="B354" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C354" t="s">
         <v>4</v>
@@ -65010,15 +65003,15 @@
         <v>1084</v>
       </c>
       <c r="X354" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1020</v>
       </c>
       <c r="B355" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C355" t="s">
         <v>4</v>
@@ -65079,12 +65072,12 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1024</v>
       </c>
       <c r="B356" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C356" t="s">
         <v>4</v>
@@ -65145,12 +65138,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>1025</v>
       </c>
       <c r="B357" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C357" t="s">
         <v>4</v>
@@ -65211,12 +65204,12 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1030</v>
       </c>
       <c r="B358" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C358" t="s">
         <v>4</v>
@@ -65278,12 +65271,12 @@
       </c>
       <c r="W358" s="2"/>
     </row>
-    <row r="359" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1033</v>
       </c>
       <c r="B359" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C359" t="s">
         <v>4</v>
@@ -65344,12 +65337,12 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1036</v>
       </c>
       <c r="B360" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C360" t="s">
         <v>4</v>
@@ -65410,12 +65403,12 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>495</v>
       </c>
       <c r="B361" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C361" t="s">
         <v>4</v>
@@ -65478,15 +65471,15 @@
         <v>659</v>
       </c>
       <c r="X361" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>890</v>
       </c>
       <c r="B362" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C362" t="s">
         <v>4</v>
@@ -65549,15 +65542,15 @@
         <v>910</v>
       </c>
       <c r="X362" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>315</v>
       </c>
       <c r="B363" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C363" t="s">
         <v>4</v>
@@ -65620,15 +65613,15 @@
         <v>317</v>
       </c>
       <c r="X363" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1049</v>
       </c>
       <c r="B364" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C364" t="s">
         <v>4</v>
@@ -65689,12 +65682,12 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1052</v>
       </c>
       <c r="B365" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C365" t="s">
         <v>4</v>
@@ -65755,12 +65748,12 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1053</v>
       </c>
       <c r="B366" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C366" t="s">
         <v>4</v>
@@ -65821,12 +65814,12 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1057</v>
       </c>
       <c r="B367" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C367" t="s">
         <v>4</v>
@@ -65887,12 +65880,12 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1059</v>
       </c>
       <c r="B368" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C368" t="s">
         <v>4</v>
@@ -65953,12 +65946,12 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1061</v>
       </c>
       <c r="B369" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C369" t="s">
         <v>4</v>
@@ -66018,12 +66011,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1064</v>
       </c>
       <c r="B370" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C370" t="s">
         <v>4</v>
@@ -66083,12 +66076,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1066</v>
       </c>
       <c r="B371" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C371" t="s">
         <v>4</v>
@@ -66148,12 +66141,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1068</v>
       </c>
       <c r="B372" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C372" t="s">
         <v>4</v>
@@ -66213,12 +66206,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1069</v>
       </c>
       <c r="B373" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C373" t="s">
         <v>4</v>
@@ -66278,12 +66271,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1070</v>
       </c>
       <c r="B374" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C374" t="s">
         <v>4</v>
@@ -66343,12 +66336,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1098</v>
       </c>
       <c r="B375" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C375" t="s">
         <v>4</v>
@@ -66408,12 +66401,12 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A376" s="10" t="s">
         <v>1350</v>
       </c>
       <c r="B376" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C376" t="s">
         <v>1351</v>
@@ -66473,21 +66466,21 @@
         <v>1357</v>
       </c>
       <c r="V376" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="W376" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="X376" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1107</v>
       </c>
       <c r="B377" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C377" t="s">
         <v>4</v>
@@ -66496,7 +66489,7 @@
         <v>1296</v>
       </c>
       <c r="E377" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F377" t="s">
         <v>1363</v>
@@ -66547,12 +66540,12 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1113</v>
       </c>
       <c r="B378" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C378" t="s">
         <v>4</v>
@@ -66561,7 +66554,7 @@
         <v>1296</v>
       </c>
       <c r="E378" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F378" t="s">
         <v>1363</v>
@@ -66612,12 +66605,12 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1071</v>
       </c>
       <c r="B379" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C379" t="s">
         <v>4</v>
@@ -66671,7 +66664,7 @@
         <v>1715</v>
       </c>
       <c r="T379" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="U379" s="2" t="s">
         <v>1074</v>
@@ -66680,15 +66673,15 @@
         <v>1073</v>
       </c>
       <c r="X379" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1120</v>
       </c>
       <c r="B380" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C380" t="s">
         <v>4</v>
@@ -66697,7 +66690,7 @@
         <v>1296</v>
       </c>
       <c r="E380" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F380" t="s">
         <v>1363</v>
@@ -66748,12 +66741,12 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1126</v>
       </c>
       <c r="B381" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C381" t="s">
         <v>4</v>
@@ -66762,7 +66755,7 @@
         <v>1296</v>
       </c>
       <c r="E381" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F381" t="s">
         <v>1363</v>
@@ -66813,12 +66806,12 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1128</v>
       </c>
       <c r="B382" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C382" t="s">
         <v>4</v>
@@ -66827,7 +66820,7 @@
         <v>1296</v>
       </c>
       <c r="E382" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F382" t="s">
         <v>1363</v>
@@ -66878,12 +66871,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1132</v>
       </c>
       <c r="B383" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C383" t="s">
         <v>4</v>
@@ -66892,7 +66885,7 @@
         <v>1296</v>
       </c>
       <c r="E383" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F383" t="s">
         <v>1363</v>
@@ -66943,12 +66936,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1136</v>
       </c>
       <c r="B384" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C384" t="s">
         <v>4</v>
@@ -66957,7 +66950,7 @@
         <v>1296</v>
       </c>
       <c r="E384" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F384" t="s">
         <v>1363</v>
@@ -67008,12 +67001,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1137</v>
       </c>
       <c r="B385" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C385" t="s">
         <v>4</v>
@@ -67022,7 +67015,7 @@
         <v>1296</v>
       </c>
       <c r="E385" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F385" t="s">
         <v>1363</v>
@@ -67073,12 +67066,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1139</v>
       </c>
       <c r="B386" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C386" t="s">
         <v>4</v>
@@ -67087,7 +67080,7 @@
         <v>1296</v>
       </c>
       <c r="E386" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F386" t="s">
         <v>1363</v>
@@ -67138,12 +67131,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="387" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1141</v>
       </c>
       <c r="B387" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C387" t="s">
         <v>4</v>
@@ -67152,7 +67145,7 @@
         <v>1296</v>
       </c>
       <c r="E387" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F387" t="s">
         <v>1363</v>
@@ -67203,12 +67196,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="388" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1142</v>
       </c>
       <c r="B388" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C388" t="s">
         <v>4</v>
@@ -67217,7 +67210,7 @@
         <v>1296</v>
       </c>
       <c r="E388" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F388" t="s">
         <v>1363</v>
@@ -67268,12 +67261,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="389" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1147</v>
       </c>
       <c r="B389" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C389" t="s">
         <v>4</v>
@@ -67282,7 +67275,7 @@
         <v>1296</v>
       </c>
       <c r="E389" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F389" t="s">
         <v>1363</v>
@@ -67333,12 +67326,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1148</v>
       </c>
       <c r="B390" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C390" t="s">
         <v>4</v>
@@ -67347,7 +67340,7 @@
         <v>1296</v>
       </c>
       <c r="E390" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F390" t="s">
         <v>1363</v>
@@ -67398,12 +67391,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="391" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1149</v>
       </c>
       <c r="B391" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C391" t="s">
         <v>4</v>
@@ -67412,7 +67405,7 @@
         <v>1296</v>
       </c>
       <c r="E391" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F391" t="s">
         <v>1363</v>
@@ -67463,12 +67456,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="392" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1151</v>
       </c>
       <c r="B392" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C392" t="s">
         <v>4</v>
@@ -67477,7 +67470,7 @@
         <v>1296</v>
       </c>
       <c r="E392" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F392" t="s">
         <v>1363</v>
@@ -67528,12 +67521,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="393" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1152</v>
       </c>
       <c r="B393" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C393" t="s">
         <v>4</v>
@@ -67542,7 +67535,7 @@
         <v>1296</v>
       </c>
       <c r="E393" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F393" t="s">
         <v>1363</v>
@@ -67593,12 +67586,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="394" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1153</v>
       </c>
       <c r="B394" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C394" t="s">
         <v>4</v>
@@ -67607,7 +67600,7 @@
         <v>1296</v>
       </c>
       <c r="E394" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F394" t="s">
         <v>1363</v>
@@ -67658,12 +67651,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="395" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1155</v>
       </c>
       <c r="B395" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C395" t="s">
         <v>4</v>
@@ -67672,7 +67665,7 @@
         <v>1296</v>
       </c>
       <c r="E395" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F395" t="s">
         <v>1363</v>
@@ -67723,12 +67716,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="396" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1156</v>
       </c>
       <c r="B396" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C396" t="s">
         <v>4</v>
@@ -67737,7 +67730,7 @@
         <v>1296</v>
       </c>
       <c r="E396" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F396" t="s">
         <v>1363</v>
@@ -67788,12 +67781,12 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="397" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1158</v>
       </c>
       <c r="B397" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C397" t="s">
         <v>4</v>
@@ -67802,7 +67795,7 @@
         <v>1296</v>
       </c>
       <c r="E397" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F397" t="s">
         <v>1363</v>
@@ -67853,12 +67846,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="398" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1159</v>
       </c>
       <c r="B398" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C398" t="s">
         <v>4</v>
@@ -67867,7 +67860,7 @@
         <v>1296</v>
       </c>
       <c r="E398" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F398" t="s">
         <v>1363</v>
@@ -67918,12 +67911,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="399" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1160</v>
       </c>
       <c r="B399" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C399" t="s">
         <v>4</v>
@@ -67932,7 +67925,7 @@
         <v>1296</v>
       </c>
       <c r="E399" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F399" t="s">
         <v>1363</v>
@@ -67983,12 +67976,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="400" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1161</v>
       </c>
       <c r="B400" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C400" t="s">
         <v>4</v>
@@ -67997,7 +67990,7 @@
         <v>1296</v>
       </c>
       <c r="E400" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F400" t="s">
         <v>1363</v>
@@ -68048,12 +68041,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1162</v>
       </c>
       <c r="B401" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C401" t="s">
         <v>4</v>
@@ -68062,7 +68055,7 @@
         <v>1296</v>
       </c>
       <c r="E401" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F401" t="s">
         <v>1363</v>
@@ -68113,12 +68106,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="402" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1163</v>
       </c>
       <c r="B402" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C402" t="s">
         <v>4</v>
@@ -68127,7 +68120,7 @@
         <v>1296</v>
       </c>
       <c r="E402" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F402" t="s">
         <v>1363</v>
@@ -68178,12 +68171,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="403" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1164</v>
       </c>
       <c r="B403" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C403" t="s">
         <v>4</v>
@@ -68192,7 +68185,7 @@
         <v>1296</v>
       </c>
       <c r="E403" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F403" t="s">
         <v>1363</v>
@@ -68243,12 +68236,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1165</v>
       </c>
       <c r="B404" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C404" t="s">
         <v>4</v>
@@ -68257,7 +68250,7 @@
         <v>1296</v>
       </c>
       <c r="E404" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F404" t="s">
         <v>1363</v>
@@ -68308,12 +68301,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="405" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1166</v>
       </c>
       <c r="B405" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C405" t="s">
         <v>4</v>
@@ -68371,12 +68364,12 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="406" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1171</v>
       </c>
       <c r="B406" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C406" t="s">
         <v>4</v>
@@ -68385,7 +68378,7 @@
         <v>1296</v>
       </c>
       <c r="E406" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F406" t="s">
         <v>1363</v>
@@ -68436,12 +68429,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="407" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1176</v>
       </c>
       <c r="B407" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C407" t="s">
         <v>4</v>
@@ -68450,7 +68443,7 @@
         <v>1296</v>
       </c>
       <c r="E407" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F407" t="s">
         <v>1363</v>
@@ -68501,12 +68494,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="408" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1178</v>
       </c>
       <c r="B408" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C408" t="s">
         <v>4</v>
@@ -68515,7 +68508,7 @@
         <v>1296</v>
       </c>
       <c r="E408" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F408" t="s">
         <v>1363</v>
@@ -68566,12 +68559,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="409" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1181</v>
       </c>
       <c r="B409" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C409" t="s">
         <v>4</v>
@@ -68580,7 +68573,7 @@
         <v>1296</v>
       </c>
       <c r="E409" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F409" t="s">
         <v>1363</v>
@@ -68631,12 +68624,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="410" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1183</v>
       </c>
       <c r="B410" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C410" t="s">
         <v>4</v>
@@ -68645,7 +68638,7 @@
         <v>1296</v>
       </c>
       <c r="E410" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F410" t="s">
         <v>1363</v>
@@ -68696,12 +68689,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="411" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1186</v>
       </c>
       <c r="B411" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C411" t="s">
         <v>4</v>
@@ -68710,7 +68703,7 @@
         <v>1296</v>
       </c>
       <c r="E411" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F411" t="s">
         <v>1363</v>
@@ -68761,12 +68754,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1189</v>
       </c>
       <c r="B412" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C412" t="s">
         <v>4</v>
@@ -68775,7 +68768,7 @@
         <v>1296</v>
       </c>
       <c r="E412" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F412" t="s">
         <v>1363</v>
@@ -68826,12 +68819,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="413" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1191</v>
       </c>
       <c r="B413" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C413" t="s">
         <v>4</v>
@@ -68840,7 +68833,7 @@
         <v>1296</v>
       </c>
       <c r="E413" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F413" t="s">
         <v>1363</v>
@@ -68891,12 +68884,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="414" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1194</v>
       </c>
       <c r="B414" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C414" t="s">
         <v>4</v>
@@ -68905,7 +68898,7 @@
         <v>1296</v>
       </c>
       <c r="E414" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F414" t="s">
         <v>1363</v>
@@ -68956,12 +68949,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="415" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1196</v>
       </c>
       <c r="B415" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C415" t="s">
         <v>4</v>
@@ -68970,7 +68963,7 @@
         <v>1296</v>
       </c>
       <c r="E415" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F415" t="s">
         <v>1363</v>
@@ -69021,12 +69014,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="416" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1198</v>
       </c>
       <c r="B416" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C416" t="s">
         <v>4</v>
@@ -69035,7 +69028,7 @@
         <v>1296</v>
       </c>
       <c r="E416" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F416" t="s">
         <v>1363</v>
@@ -69086,12 +69079,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="417" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1201</v>
       </c>
       <c r="B417" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C417" t="s">
         <v>4</v>
@@ -69100,7 +69093,7 @@
         <v>1296</v>
       </c>
       <c r="E417" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F417" t="s">
         <v>1363</v>
@@ -69151,12 +69144,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="418" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1204</v>
       </c>
       <c r="B418" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C418" t="s">
         <v>4</v>
@@ -69165,7 +69158,7 @@
         <v>1296</v>
       </c>
       <c r="E418" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F418" t="s">
         <v>1363</v>
@@ -69216,12 +69209,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="419" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1206</v>
       </c>
       <c r="B419" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C419" t="s">
         <v>4</v>
@@ -69230,7 +69223,7 @@
         <v>1296</v>
       </c>
       <c r="E419" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F419" t="s">
         <v>1363</v>
@@ -69281,12 +69274,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="420" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1209</v>
       </c>
       <c r="B420" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C420" t="s">
         <v>4</v>
@@ -69295,7 +69288,7 @@
         <v>1296</v>
       </c>
       <c r="E420" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F420" t="s">
         <v>1363</v>
@@ -69346,12 +69339,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1211</v>
       </c>
       <c r="B421" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C421" t="s">
         <v>4</v>
@@ -69360,7 +69353,7 @@
         <v>1296</v>
       </c>
       <c r="E421" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F421" t="s">
         <v>1363</v>
@@ -69411,12 +69404,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="422" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1212</v>
       </c>
       <c r="B422" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C422" t="s">
         <v>4</v>
@@ -69425,7 +69418,7 @@
         <v>1296</v>
       </c>
       <c r="E422" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F422" t="s">
         <v>1363</v>
@@ -69476,12 +69469,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="423" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1213</v>
       </c>
       <c r="B423" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C423" t="s">
         <v>4</v>
@@ -69490,7 +69483,7 @@
         <v>1296</v>
       </c>
       <c r="E423" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F423" t="s">
         <v>1363</v>
@@ -69541,12 +69534,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="424" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1214</v>
       </c>
       <c r="B424" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C424" t="s">
         <v>4</v>
@@ -69555,7 +69548,7 @@
         <v>1296</v>
       </c>
       <c r="E424" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F424" t="s">
         <v>1363</v>
@@ -69606,12 +69599,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="425" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1215</v>
       </c>
       <c r="B425" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C425" t="s">
         <v>4</v>
@@ -69620,7 +69613,7 @@
         <v>1296</v>
       </c>
       <c r="E425" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F425" t="s">
         <v>1363</v>
@@ -69671,12 +69664,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="426" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1216</v>
       </c>
       <c r="B426" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C426" t="s">
         <v>4</v>
@@ -69685,7 +69678,7 @@
         <v>1296</v>
       </c>
       <c r="E426" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F426" t="s">
         <v>1363</v>
@@ -69736,12 +69729,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="427" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1217</v>
       </c>
       <c r="B427" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C427" t="s">
         <v>4</v>
@@ -69750,7 +69743,7 @@
         <v>1296</v>
       </c>
       <c r="E427" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F427" t="s">
         <v>1363</v>
@@ -69801,12 +69794,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="428" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1218</v>
       </c>
       <c r="B428" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C428" t="s">
         <v>4</v>
@@ -69815,7 +69808,7 @@
         <v>1296</v>
       </c>
       <c r="E428" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F428" t="s">
         <v>1363</v>
@@ -69866,12 +69859,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="429" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1219</v>
       </c>
       <c r="B429" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C429" t="s">
         <v>4</v>
@@ -69880,7 +69873,7 @@
         <v>1296</v>
       </c>
       <c r="E429" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F429" t="s">
         <v>1363</v>
@@ -69931,12 +69924,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="430" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1220</v>
       </c>
       <c r="B430" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C430" t="s">
         <v>4</v>
@@ -69945,7 +69938,7 @@
         <v>1296</v>
       </c>
       <c r="E430" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F430" t="s">
         <v>1363</v>
@@ -69996,12 +69989,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="431" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1221</v>
       </c>
       <c r="B431" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C431" t="s">
         <v>4</v>
@@ -70010,7 +70003,7 @@
         <v>1296</v>
       </c>
       <c r="E431" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F431" t="s">
         <v>1363</v>
@@ -70061,12 +70054,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="432" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1222</v>
       </c>
       <c r="B432" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C432" t="s">
         <v>4</v>
@@ -70075,7 +70068,7 @@
         <v>1296</v>
       </c>
       <c r="E432" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F432" t="s">
         <v>1363</v>
@@ -70126,12 +70119,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1223</v>
       </c>
       <c r="B433" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C433" t="s">
         <v>4</v>
@@ -70140,7 +70133,7 @@
         <v>1296</v>
       </c>
       <c r="E433" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F433" t="s">
         <v>1363</v>
@@ -70191,12 +70184,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1224</v>
       </c>
       <c r="B434" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C434" t="s">
         <v>4</v>
@@ -70205,7 +70198,7 @@
         <v>1296</v>
       </c>
       <c r="E434" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F434" t="s">
         <v>1363</v>
@@ -70256,12 +70249,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1225</v>
       </c>
       <c r="B435" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C435" t="s">
         <v>4</v>
@@ -70270,7 +70263,7 @@
         <v>1296</v>
       </c>
       <c r="E435" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F435" t="s">
         <v>1363</v>
@@ -70321,12 +70314,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1226</v>
       </c>
       <c r="B436" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C436" t="s">
         <v>4</v>
@@ -70387,12 +70380,12 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1232</v>
       </c>
       <c r="B437" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C437" t="s">
         <v>4</v>
@@ -70453,12 +70446,12 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>427</v>
       </c>
       <c r="B438" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C438" t="s">
         <v>4</v>
@@ -70519,15 +70512,15 @@
         <v>617</v>
       </c>
       <c r="X438" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>429</v>
       </c>
       <c r="B439" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C439" t="s">
         <v>4</v>
@@ -70588,15 +70581,15 @@
         <v>618</v>
       </c>
       <c r="X439" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1242</v>
       </c>
       <c r="B440" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C440" t="s">
         <v>4</v>
@@ -70626,7 +70619,7 @@
         <v>1244</v>
       </c>
       <c r="L440" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="M440" s="10" t="s">
         <v>1245</v>
@@ -70657,12 +70650,12 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1246</v>
       </c>
       <c r="B441" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C441" t="s">
         <v>4</v>
@@ -70723,12 +70716,12 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1250</v>
       </c>
       <c r="B442" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C442" t="s">
         <v>4</v>
@@ -70789,12 +70782,12 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1253</v>
       </c>
       <c r="B443" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C443" t="s">
         <v>4</v>
@@ -70855,12 +70848,12 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1254</v>
       </c>
       <c r="B444" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C444" t="s">
         <v>4</v>
@@ -70921,12 +70914,12 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1255</v>
       </c>
       <c r="B445" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C445" t="s">
         <v>4</v>
@@ -70987,12 +70980,12 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1256</v>
       </c>
       <c r="B446" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C446" t="s">
         <v>4</v>
@@ -71053,12 +71046,12 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1257</v>
       </c>
       <c r="B447" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C447" t="s">
         <v>4</v>
@@ -71119,12 +71112,12 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1258</v>
       </c>
       <c r="B448" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C448" t="s">
         <v>4</v>
@@ -71185,12 +71178,12 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1259</v>
       </c>
       <c r="B449" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C449" t="s">
         <v>4</v>
@@ -71251,12 +71244,12 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="450" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1260</v>
       </c>
       <c r="B450" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C450" t="s">
         <v>4</v>
@@ -71317,12 +71310,12 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1261</v>
       </c>
       <c r="B451" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C451" t="s">
         <v>4</v>
@@ -71383,12 +71376,12 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="452" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1262</v>
       </c>
       <c r="B452" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C452" t="s">
         <v>4</v>
@@ -71449,12 +71442,12 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1263</v>
       </c>
       <c r="B453" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C453" t="s">
         <v>4</v>
@@ -71515,12 +71508,12 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1264</v>
       </c>
       <c r="B454" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C454" t="s">
         <v>4</v>
@@ -71581,12 +71574,12 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1270</v>
       </c>
       <c r="B455" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C455" t="s">
         <v>4</v>
@@ -71647,12 +71640,12 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="456" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1275</v>
       </c>
       <c r="B456" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C456" t="s">
         <v>4</v>
@@ -71713,12 +71706,12 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="457" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1279</v>
       </c>
       <c r="B457" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C457" t="s">
         <v>4</v>
@@ -71779,12 +71772,12 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="458" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1280</v>
       </c>
       <c r="B458" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C458" t="s">
         <v>4</v>
@@ -71845,12 +71838,12 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="459" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1282</v>
       </c>
       <c r="B459" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C459" t="s">
         <v>4</v>
@@ -71911,12 +71904,12 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="460" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1283</v>
       </c>
       <c r="B460" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C460" t="s">
         <v>4</v>
@@ -71977,12 +71970,12 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="461" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1284</v>
       </c>
       <c r="B461" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C461" t="s">
         <v>4</v>
@@ -72043,12 +72036,12 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="462" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1285</v>
       </c>
       <c r="B462" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C462" t="s">
         <v>4</v>
@@ -72109,12 +72102,12 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="463" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1286</v>
       </c>
       <c r="B463" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C463" t="s">
         <v>4</v>
@@ -72175,12 +72168,12 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="464" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1288</v>
       </c>
       <c r="B464" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C464" t="s">
         <v>4</v>
@@ -72241,12 +72234,12 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1290</v>
       </c>
       <c r="B465" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C465" t="s">
         <v>4</v>
@@ -72307,12 +72300,12 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1291</v>
       </c>
       <c r="B466" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C466" t="s">
         <v>4</v>
@@ -72373,12 +72366,12 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1114</v>
       </c>
       <c r="B467" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C467" t="s">
         <v>4</v>
@@ -72441,10 +72434,10 @@
         <v>1301</v>
       </c>
       <c r="X467" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A468" s="35" t="s">
         <v>1602</v>
       </c>
@@ -72512,7 +72505,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A469" s="35" t="s">
         <v>1603</v>
       </c>
@@ -72574,7 +72567,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="360" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:24" ht="360" x14ac:dyDescent="0.3">
       <c r="A470" s="35" t="s">
         <v>1604</v>
       </c>
@@ -72618,13 +72611,13 @@
         <v>608</v>
       </c>
       <c r="O470" s="5" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="P470" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="Q470" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="R470">
         <v>2009</v>
@@ -72633,16 +72626,16 @@
         <v>1417</v>
       </c>
       <c r="T470" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="U470" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="W470" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A471" s="35" t="s">
         <v>1605</v>
       </c>
@@ -72686,13 +72679,13 @@
         <v>39661</v>
       </c>
       <c r="O471" s="5" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="P471" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="Q471" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="R471" s="2">
         <v>2012</v>
@@ -72701,17 +72694,17 @@
         <v>1403</v>
       </c>
       <c r="T471" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="U471" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="V471" s="2"/>
       <c r="W471" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A472" s="35" t="s">
         <v>1606</v>
       </c>
@@ -72755,13 +72748,13 @@
         <v>2001</v>
       </c>
       <c r="O472" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="P472" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="Q472" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="R472">
         <v>2006</v>
@@ -72773,18 +72766,18 @@
         <v>27</v>
       </c>
       <c r="U472" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="V472" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>283</v>
       </c>
       <c r="B473" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C473" t="s">
         <v>4</v>
@@ -72847,15 +72840,15 @@
         <v>309</v>
       </c>
       <c r="X473" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1362</v>
       </c>
       <c r="B474" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C474" t="s">
         <v>1351</v>
@@ -72919,15 +72912,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1545</v>
       </c>
       <c r="B475" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C475" t="s">
         <v>1763</v>
-      </c>
-      <c r="C475" t="s">
-        <v>1764</v>
       </c>
       <c r="D475" s="34" t="s">
         <v>1546</v>
@@ -72978,12 +72971,12 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>284</v>
       </c>
       <c r="B476" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C476" t="s">
         <v>4</v>
@@ -73046,18 +73039,18 @@
         <v>309</v>
       </c>
       <c r="X476" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1589</v>
       </c>
       <c r="B477" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C477" t="s">
         <v>1763</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1764</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>1590</v>
@@ -73081,7 +73074,7 @@
         <v>7</v>
       </c>
       <c r="K477" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="L477" s="8" t="s">
         <v>1593</v>
@@ -73093,7 +73086,7 @@
         <v>2001</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="P477" s="6" t="s">
         <v>1596</v>
@@ -73106,14 +73099,14 @@
       </c>
       <c r="S477" s="2"/>
       <c r="T477" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="U477" s="2" t="s">
         <v>1854</v>
-      </c>
-      <c r="U477" s="2" t="s">
-        <v>1855</v>
       </c>
       <c r="V477" s="2"/>
     </row>
-    <row r="478" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A478" s="35" t="s">
         <v>1584</v>
       </c>
@@ -73121,7 +73114,7 @@
         <v>1615</v>
       </c>
       <c r="C478" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D478" s="34" t="s">
         <v>1587</v>
@@ -73145,7 +73138,7 @@
         <v>7</v>
       </c>
       <c r="K478" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="L478" s="2" t="s">
         <v>943</v>
@@ -73163,19 +73156,19 @@
         <v>841</v>
       </c>
       <c r="Q478" s="9" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="R478" s="2">
         <v>2004</v>
       </c>
       <c r="S478" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="T478" s="10" t="s">
         <v>1810</v>
       </c>
-      <c r="T478" s="10" t="s">
+      <c r="U478" s="2" t="s">
         <v>1811</v>
-      </c>
-      <c r="U478" s="2" t="s">
-        <v>1812</v>
       </c>
       <c r="V478" s="2" t="s">
         <v>28</v>
@@ -73184,7 +73177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:24" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1589</v>
       </c>
@@ -73192,7 +73185,7 @@
         <v>1615</v>
       </c>
       <c r="C479" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D479" s="34" t="s">
         <v>1590</v>
@@ -73255,12 +73248,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>308</v>
       </c>
       <c r="B480" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C480" t="s">
         <v>4</v>
@@ -73323,15 +73316,15 @@
         <v>309</v>
       </c>
       <c r="X480" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1038</v>
       </c>
       <c r="B481" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C481" t="s">
         <v>4</v>
@@ -73394,10 +73387,10 @@
         <v>1078</v>
       </c>
       <c r="X481" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A482" s="35" t="s">
         <v>1609</v>
       </c>
@@ -73439,13 +73432,13 @@
       </c>
       <c r="N482" s="36"/>
       <c r="O482" s="5" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="P482" s="20" t="s">
         <v>1648</v>
       </c>
       <c r="Q482" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="R482" s="2">
         <v>2016</v>
@@ -73454,10 +73447,10 @@
         <v>1417</v>
       </c>
       <c r="T482" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="U482" s="2" t="s">
         <v>1815</v>
-      </c>
-      <c r="U482" s="2" t="s">
-        <v>1816</v>
       </c>
       <c r="V482" s="2" t="s">
         <v>28</v>
@@ -73466,7 +73459,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A483" s="35" t="s">
         <v>1610</v>
       </c>
@@ -73510,13 +73503,13 @@
         <v>376</v>
       </c>
       <c r="O483" s="33" t="s">
+        <v>1816</v>
+      </c>
+      <c r="P483" s="20" t="s">
+        <v>1820</v>
+      </c>
+      <c r="Q483" s="2" t="s">
         <v>1817</v>
-      </c>
-      <c r="P483" s="20" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Q483" s="2" t="s">
-        <v>1818</v>
       </c>
       <c r="R483" s="2">
         <v>2011</v>
@@ -73525,10 +73518,10 @@
         <v>1417</v>
       </c>
       <c r="T483" s="10" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="U483" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="V483" s="2" t="s">
         <v>28</v>
@@ -73537,7 +73530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>57</v>
       </c>
@@ -73599,10 +73592,10 @@
         <v>1586</v>
       </c>
       <c r="X484" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A485" s="35" t="s">
         <v>1612</v>
       </c>
@@ -73646,13 +73639,13 @@
         <v>376</v>
       </c>
       <c r="O485" s="33" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="P485" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="Q485" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="R485" s="2">
         <v>2013</v>
@@ -73664,21 +73657,21 @@
         <v>27</v>
       </c>
       <c r="U485" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="V485" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W485" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>425</v>
       </c>
       <c r="B486" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C486" t="s">
         <v>4</v>
@@ -73741,15 +73734,15 @@
         <v>616</v>
       </c>
       <c r="X486" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>423</v>
       </c>
       <c r="B487" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C487" t="s">
         <v>4</v>
@@ -73812,15 +73805,15 @@
         <v>615</v>
       </c>
       <c r="X487" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>325</v>
       </c>
       <c r="B488" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C488" t="s">
         <v>4</v>
@@ -73886,15 +73879,15 @@
         <v>27</v>
       </c>
       <c r="X488" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1103</v>
       </c>
       <c r="B489" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C489" t="s">
         <v>4</v>
@@ -73957,27 +73950,27 @@
         <v>1298</v>
       </c>
       <c r="X489" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B490" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="490" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+      <c r="C490" t="s">
         <v>1827</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1828</v>
       </c>
       <c r="D490" t="s">
         <v>1296</v>
       </c>
       <c r="E490" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G490" t="s">
         <v>1829</v>
-      </c>
-      <c r="G490" t="s">
-        <v>1830</v>
       </c>
       <c r="H490" s="8" t="s">
         <v>6</v>
@@ -73989,25 +73982,25 @@
         <v>7</v>
       </c>
       <c r="K490" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="L490" s="2" t="s">
         <v>943</v>
       </c>
       <c r="M490" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="N490" s="10" t="s">
         <v>1832</v>
       </c>
-      <c r="N490" s="10" t="s">
+      <c r="O490" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="O490" s="2" t="s">
+      <c r="P490" s="6" t="s">
         <v>1834</v>
       </c>
-      <c r="P490" s="6" t="s">
+      <c r="Q490" s="2" t="s">
         <v>1835</v>
-      </c>
-      <c r="Q490" s="2" t="s">
-        <v>1836</v>
       </c>
       <c r="R490" s="3">
         <v>2017</v>
@@ -74016,10 +74009,10 @@
         <v>7</v>
       </c>
       <c r="T490" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="V490" s="2" t="s">
         <v>1837</v>
-      </c>
-      <c r="V490" s="2" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="491" spans="1:24" x14ac:dyDescent="0.3">
@@ -74211,13 +74204,7 @@
       <c r="Q547" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X490" xr:uid="{F8DAEBFD-78AC-4E24-A1EF-CD140122AED7}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="Koda"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X490" xr:uid="{F8DAEBFD-78AC-4E24-A1EF-CD140122AED7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O4" r:id="rId1" xr:uid="{0867E947-7D52-4735-9FFE-BF8003FA0DE4}"/>

--- a/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
+++ b/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A19432A-AEF2-4A75-9493-2D8F69FCF7A3}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19FF1F88-68CA-4281-AA89-A1F773F3A0E8}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12552" windowHeight="12360" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="14064" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main sheet" sheetId="1" r:id="rId1"/>
@@ -41692,38 +41692,38 @@
   <dimension ref="A1:Y547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X125" sqref="X125"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="47.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="50.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.44140625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="46.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="38.109375" customWidth="1"/>
-    <col min="17" max="17" width="40.44140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21.44140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="42.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="83.36328125" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="47.90625" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.90625" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.453125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="46.08984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.08984375" customWidth="1"/>
+    <col min="17" max="17" width="40.453125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.453125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="42.08984375" style="3" customWidth="1"/>
     <col min="20" max="20" width="48" style="2" customWidth="1"/>
-    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.6328125" style="2" customWidth="1"/>
     <col min="22" max="22" width="48" customWidth="1"/>
-    <col min="23" max="23" width="37.44140625" customWidth="1"/>
-    <col min="24" max="24" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="37.453125" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
@@ -41797,7 +41797,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>1606</v>
       </c>
@@ -41869,7 +41869,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -42014,7 +42014,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>1605</v>
       </c>
@@ -42082,7 +42082,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -42156,7 +42156,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -42302,7 +42302,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -42376,7 +42376,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -42442,7 +42442,7 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>1609</v>
       </c>
@@ -42516,7 +42516,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>1619</v>
       </c>
@@ -42590,7 +42590,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>801</v>
       </c>
@@ -42664,7 +42664,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -42729,7 +42729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -42794,7 +42794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -42859,7 +42859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>87</v>
       </c>
@@ -42924,7 +42924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>88</v>
       </c>
@@ -42989,7 +42989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -43054,7 +43054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -43119,7 +43119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -43184,7 +43184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -43249,7 +43249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -43314,7 +43314,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -43379,7 +43379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -43444,7 +43444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -43509,7 +43509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -43578,7 +43578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -43647,7 +43647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -43713,7 +43713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="203" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -43778,7 +43778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="202.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="203.5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -43843,7 +43843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="203" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -43908,7 +43908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -43979,7 +43979,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1687</v>
       </c>
@@ -44045,7 +44045,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -44104,7 +44104,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -44169,7 +44169,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -44234,7 +44234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -44299,7 +44299,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -44358,7 +44358,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -44423,7 +44423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -44488,7 +44488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -44553,7 +44553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -44618,7 +44618,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -44813,7 +44813,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -44878,7 +44878,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -44943,7 +44943,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -45008,7 +45008,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -45073,7 +45073,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -45138,7 +45138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -45203,7 +45203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -45268,7 +45268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -45333,7 +45333,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>207</v>
       </c>
@@ -45398,7 +45398,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -45463,7 +45463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -45528,7 +45528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -45591,7 +45591,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -45656,7 +45656,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>225</v>
       </c>
@@ -45721,7 +45721,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>227</v>
       </c>
@@ -45786,7 +45786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -45851,7 +45851,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>231</v>
       </c>
@@ -45916,7 +45916,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>235</v>
       </c>
@@ -45981,7 +45981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -46046,7 +46046,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>239</v>
       </c>
@@ -46111,7 +46111,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>241</v>
       </c>
@@ -46176,7 +46176,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -46241,7 +46241,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>244</v>
       </c>
@@ -46306,7 +46306,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -46371,7 +46371,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>246</v>
       </c>
@@ -46436,7 +46436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>248</v>
       </c>
@@ -46501,7 +46501,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -46566,7 +46566,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>250</v>
       </c>
@@ -46631,7 +46631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>252</v>
       </c>
@@ -46696,7 +46696,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -46761,7 +46761,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -46827,7 +46827,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>267</v>
       </c>
@@ -46893,7 +46893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>275</v>
       </c>
@@ -46959,7 +46959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -47025,7 +47025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -47157,7 +47157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>290</v>
       </c>
@@ -47223,7 +47223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>291</v>
       </c>
@@ -47289,7 +47289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -47355,7 +47355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -47421,7 +47421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>294</v>
       </c>
@@ -47487,7 +47487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>295</v>
       </c>
@@ -47553,7 +47553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -47619,7 +47619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -47685,7 +47685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
         <v>1611</v>
       </c>
@@ -47759,7 +47759,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -47833,7 +47833,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>1581</v>
       </c>
@@ -47896,7 +47896,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>309</v>
       </c>
@@ -47962,7 +47962,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>310</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
         <v>1691</v>
       </c>
@@ -48099,7 +48099,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -48165,7 +48165,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>321</v>
       </c>
@@ -48231,7 +48231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
         <v>1612</v>
       </c>
@@ -48305,7 +48305,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>328</v>
       </c>
@@ -48371,7 +48371,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>329</v>
       </c>
@@ -48437,7 +48437,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>333</v>
       </c>
@@ -48503,7 +48503,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>337</v>
       </c>
@@ -48569,7 +48569,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>342</v>
       </c>
@@ -48635,7 +48635,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>343</v>
       </c>
@@ -48701,7 +48701,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>344</v>
       </c>
@@ -48767,7 +48767,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>351</v>
       </c>
@@ -48833,7 +48833,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>352</v>
       </c>
@@ -48899,7 +48899,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>353</v>
       </c>
@@ -48965,7 +48965,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>354</v>
       </c>
@@ -49031,7 +49031,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>355</v>
       </c>
@@ -49097,7 +49097,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>356</v>
       </c>
@@ -49163,7 +49163,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>363</v>
       </c>
@@ -49229,7 +49229,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>367</v>
       </c>
@@ -49295,7 +49295,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>370</v>
       </c>
@@ -49361,7 +49361,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>376</v>
       </c>
@@ -49427,7 +49427,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>378</v>
       </c>
@@ -49493,7 +49493,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>379</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>381</v>
       </c>
@@ -49625,7 +49625,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>382</v>
       </c>
@@ -49691,7 +49691,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>383</v>
       </c>
@@ -49757,7 +49757,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -49823,7 +49823,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>385</v>
       </c>
@@ -49885,7 +49885,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1232</v>
       </c>
@@ -49959,7 +49959,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1237</v>
       </c>
@@ -50033,7 +50033,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>406</v>
       </c>
@@ -50099,7 +50099,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1438</v>
       </c>
@@ -50168,7 +50168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -50234,7 +50234,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>412</v>
       </c>
@@ -50300,7 +50300,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>414</v>
       </c>
@@ -50366,7 +50366,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>416</v>
       </c>
@@ -50432,7 +50432,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>418</v>
       </c>
@@ -50498,7 +50498,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -50564,7 +50564,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -50635,7 +50635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>400</v>
       </c>
@@ -50709,7 +50709,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>402</v>
       </c>
@@ -50783,7 +50783,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>62</v>
       </c>
@@ -50857,7 +50857,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>430</v>
       </c>
@@ -50923,7 +50923,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>432</v>
       </c>
@@ -50989,7 +50989,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>434</v>
       </c>
@@ -51055,7 +51055,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>436</v>
       </c>
@@ -51121,7 +51121,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>438</v>
       </c>
@@ -51187,7 +51187,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>440</v>
       </c>
@@ -51253,7 +51253,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>442</v>
       </c>
@@ -51319,7 +51319,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -51385,7 +51385,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -51451,7 +51451,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>448</v>
       </c>
@@ -51517,7 +51517,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>450</v>
       </c>
@@ -51583,7 +51583,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>452</v>
       </c>
@@ -51649,7 +51649,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>454</v>
       </c>
@@ -51715,7 +51715,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>456</v>
       </c>
@@ -51781,7 +51781,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -51847,7 +51847,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -51913,7 +51913,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>460</v>
       </c>
@@ -51979,7 +51979,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>461</v>
       </c>
@@ -52045,7 +52045,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -52111,7 +52111,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>463</v>
       </c>
@@ -52177,7 +52177,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>464</v>
       </c>
@@ -52243,7 +52243,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>465</v>
       </c>
@@ -52309,7 +52309,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>466</v>
       </c>
@@ -52375,7 +52375,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>467</v>
       </c>
@@ -52441,7 +52441,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>468</v>
       </c>
@@ -52507,7 +52507,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>469</v>
       </c>
@@ -52573,7 +52573,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>470</v>
       </c>
@@ -52639,7 +52639,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>471</v>
       </c>
@@ -52705,7 +52705,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>472</v>
       </c>
@@ -52771,7 +52771,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>473</v>
       </c>
@@ -52837,7 +52837,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>474</v>
       </c>
@@ -52903,7 +52903,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>475</v>
       </c>
@@ -52969,7 +52969,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -53035,7 +53035,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>477</v>
       </c>
@@ -53101,7 +53101,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>478</v>
       </c>
@@ -53167,7 +53167,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>479</v>
       </c>
@@ -53233,7 +53233,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>480</v>
       </c>
@@ -53299,7 +53299,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>481</v>
       </c>
@@ -53365,7 +53365,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>482</v>
       </c>
@@ -53431,7 +53431,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>483</v>
       </c>
@@ -53497,7 +53497,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>484</v>
       </c>
@@ -53563,7 +53563,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>485</v>
       </c>
@@ -53629,7 +53629,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>486</v>
       </c>
@@ -53695,7 +53695,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>488</v>
       </c>
@@ -53761,7 +53761,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>489</v>
       </c>
@@ -53827,7 +53827,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>490</v>
       </c>
@@ -53893,7 +53893,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>491</v>
       </c>
@@ -53959,7 +53959,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>493</v>
       </c>
@@ -54025,7 +54025,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>67</v>
       </c>
@@ -54099,7 +54099,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>495</v>
       </c>
@@ -54165,7 +54165,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>497</v>
       </c>
@@ -54227,7 +54227,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>498</v>
       </c>
@@ -54291,7 +54291,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>499</v>
       </c>
@@ -54357,7 +54357,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>500</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>501</v>
       </c>
@@ -54471,7 +54471,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>502</v>
       </c>
@@ -54528,7 +54528,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>503</v>
       </c>
@@ -54585,7 +54585,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>504</v>
       </c>
@@ -54642,7 +54642,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>505</v>
       </c>
@@ -54699,7 +54699,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>506</v>
       </c>
@@ -54756,7 +54756,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>507</v>
       </c>
@@ -54813,7 +54813,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>508</v>
       </c>
@@ -54879,7 +54879,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>509</v>
       </c>
@@ -54945,7 +54945,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>511</v>
       </c>
@@ -55011,7 +55011,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>513</v>
       </c>
@@ -55074,7 +55074,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>514</v>
       </c>
@@ -55140,7 +55140,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>516</v>
       </c>
@@ -55206,7 +55206,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>517</v>
       </c>
@@ -55272,7 +55272,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>518</v>
       </c>
@@ -55338,7 +55338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>520</v>
       </c>
@@ -55404,7 +55404,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -55470,7 +55470,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>522</v>
       </c>
@@ -55536,7 +55536,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>524</v>
       </c>
@@ -55602,7 +55602,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>525</v>
       </c>
@@ -55668,7 +55668,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>526</v>
       </c>
@@ -55734,7 +55734,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>528</v>
       </c>
@@ -55800,7 +55800,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>529</v>
       </c>
@@ -55866,7 +55866,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>530</v>
       </c>
@@ -55932,7 +55932,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>532</v>
       </c>
@@ -55998,7 +55998,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>533</v>
       </c>
@@ -56064,7 +56064,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>534</v>
       </c>
@@ -56130,7 +56130,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>536</v>
       </c>
@@ -56196,7 +56196,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>537</v>
       </c>
@@ -56262,7 +56262,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>538</v>
       </c>
@@ -56328,7 +56328,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>540</v>
       </c>
@@ -56394,7 +56394,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>541</v>
       </c>
@@ -56460,7 +56460,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>542</v>
       </c>
@@ -56526,7 +56526,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>544</v>
       </c>
@@ -56592,7 +56592,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>545</v>
       </c>
@@ -56655,7 +56655,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>546</v>
       </c>
@@ -56720,7 +56720,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -56785,7 +56785,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>548</v>
       </c>
@@ -56850,7 +56850,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>549</v>
       </c>
@@ -56915,7 +56915,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>550</v>
       </c>
@@ -56980,7 +56980,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>551</v>
       </c>
@@ -57045,7 +57045,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>552</v>
       </c>
@@ -57110,7 +57110,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>553</v>
       </c>
@@ -57175,7 +57175,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>554</v>
       </c>
@@ -57240,7 +57240,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>555</v>
       </c>
@@ -57305,7 +57305,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>556</v>
       </c>
@@ -57370,7 +57370,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>557</v>
       </c>
@@ -57435,7 +57435,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>558</v>
       </c>
@@ -57500,7 +57500,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>559</v>
       </c>
@@ -57565,7 +57565,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>560</v>
       </c>
@@ -57630,7 +57630,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>561</v>
       </c>
@@ -57695,7 +57695,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>562</v>
       </c>
@@ -57760,7 +57760,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>563</v>
       </c>
@@ -57825,7 +57825,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>564</v>
       </c>
@@ -57888,7 +57888,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>565</v>
       </c>
@@ -57953,7 +57953,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>566</v>
       </c>
@@ -58018,7 +58018,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>567</v>
       </c>
@@ -58083,7 +58083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>568</v>
       </c>
@@ -58148,7 +58148,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>569</v>
       </c>
@@ -58213,7 +58213,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>570</v>
       </c>
@@ -58278,7 +58278,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>571</v>
       </c>
@@ -58343,7 +58343,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>572</v>
       </c>
@@ -58408,7 +58408,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>573</v>
       </c>
@@ -58473,7 +58473,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>574</v>
       </c>
@@ -58538,7 +58538,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>575</v>
       </c>
@@ -58603,7 +58603,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>576</v>
       </c>
@@ -58668,7 +58668,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>577</v>
       </c>
@@ -58733,7 +58733,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>578</v>
       </c>
@@ -58798,7 +58798,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>579</v>
       </c>
@@ -58863,7 +58863,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>580</v>
       </c>
@@ -58928,7 +58928,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>581</v>
       </c>
@@ -58993,7 +58993,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>582</v>
       </c>
@@ -59058,7 +59058,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>583</v>
       </c>
@@ -59123,7 +59123,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>585</v>
       </c>
@@ -59192,7 +59192,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>586</v>
       </c>
@@ -59261,7 +59261,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>587</v>
       </c>
@@ -59327,7 +59327,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>588</v>
       </c>
@@ -59393,7 +59393,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>589</v>
       </c>
@@ -59459,7 +59459,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:24" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>590</v>
       </c>
@@ -59525,7 +59525,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:24" ht="261" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>591</v>
       </c>
@@ -59591,7 +59591,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>592</v>
       </c>
@@ -59657,7 +59657,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>593</v>
       </c>
@@ -59723,7 +59723,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>594</v>
       </c>
@@ -59789,7 +59789,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>595</v>
       </c>
@@ -59855,7 +59855,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>596</v>
       </c>
@@ -59921,7 +59921,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>597</v>
       </c>
@@ -59990,7 +59990,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>598</v>
       </c>
@@ -60056,7 +60056,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>599</v>
       </c>
@@ -60122,7 +60122,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>600</v>
       </c>
@@ -60188,7 +60188,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>601</v>
       </c>
@@ -60254,7 +60254,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>602</v>
       </c>
@@ -60320,7 +60320,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>603</v>
       </c>
@@ -60389,7 +60389,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>604</v>
       </c>
@@ -60458,7 +60458,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>605</v>
       </c>
@@ -60527,7 +60527,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>606</v>
       </c>
@@ -60596,7 +60596,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>799</v>
       </c>
@@ -60662,7 +60662,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1045</v>
       </c>
@@ -60733,7 +60733,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>803</v>
       </c>
@@ -60799,7 +60799,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>804</v>
       </c>
@@ -60865,7 +60865,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>805</v>
       </c>
@@ -60931,7 +60931,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>806</v>
       </c>
@@ -60997,7 +60997,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>807</v>
       </c>
@@ -61063,7 +61063,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>808</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>810</v>
       </c>
@@ -61194,7 +61194,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>811</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>812</v>
       </c>
@@ -61326,7 +61326,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>813</v>
       </c>
@@ -61391,7 +61391,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>814</v>
       </c>
@@ -61457,7 +61457,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>815</v>
       </c>
@@ -61522,7 +61522,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:22" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>817</v>
       </c>
@@ -61587,7 +61587,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>819</v>
       </c>
@@ -61652,7 +61652,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>821</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>823</v>
       </c>
@@ -61782,7 +61782,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>825</v>
       </c>
@@ -61847,7 +61847,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>827</v>
       </c>
@@ -61912,7 +61912,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>829</v>
       </c>
@@ -61977,7 +61977,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>831</v>
       </c>
@@ -62042,7 +62042,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>833</v>
       </c>
@@ -62107,7 +62107,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>835</v>
       </c>
@@ -62172,7 +62172,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>872</v>
       </c>
@@ -62239,7 +62239,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>874</v>
       </c>
@@ -62308,7 +62308,7 @@
       </c>
       <c r="X312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>875</v>
       </c>
@@ -62374,7 +62374,7 @@
       </c>
       <c r="X313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>876</v>
       </c>
@@ -62440,7 +62440,7 @@
       </c>
       <c r="X314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>877</v>
       </c>
@@ -62504,7 +62504,7 @@
       </c>
       <c r="X315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>878</v>
       </c>
@@ -62568,7 +62568,7 @@
       </c>
       <c r="X316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>879</v>
       </c>
@@ -62634,7 +62634,7 @@
       </c>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>880</v>
       </c>
@@ -62701,7 +62701,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>882</v>
       </c>
@@ -62768,7 +62768,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>885</v>
       </c>
@@ -62832,7 +62832,7 @@
       </c>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>886</v>
       </c>
@@ -62899,7 +62899,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1699</v>
       </c>
@@ -62970,7 +62970,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" ht="261" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>891</v>
       </c>
@@ -63036,7 +63036,7 @@
       </c>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>893</v>
       </c>
@@ -63102,7 +63102,7 @@
       </c>
       <c r="X324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>894</v>
       </c>
@@ -63168,7 +63168,7 @@
       </c>
       <c r="X325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>920</v>
       </c>
@@ -63234,7 +63234,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>922</v>
       </c>
@@ -63300,7 +63300,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>923</v>
       </c>
@@ -63366,7 +63366,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>930</v>
       </c>
@@ -63431,7 +63431,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>932</v>
       </c>
@@ -63496,7 +63496,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>933</v>
       </c>
@@ -63561,7 +63561,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>938</v>
       </c>
@@ -63626,7 +63626,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>945</v>
       </c>
@@ -63690,7 +63690,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>948</v>
       </c>
@@ -63756,7 +63756,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>954</v>
       </c>
@@ -63822,7 +63822,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>956</v>
       </c>
@@ -63888,7 +63888,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>958</v>
       </c>
@@ -63954,7 +63954,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>960</v>
       </c>
@@ -64020,7 +64020,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="339" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>962</v>
       </c>
@@ -64086,7 +64086,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="340" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>964</v>
       </c>
@@ -64152,7 +64152,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="341" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>966</v>
       </c>
@@ -64218,7 +64218,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="342" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>968</v>
       </c>
@@ -64284,7 +64284,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="343" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>970</v>
       </c>
@@ -64350,7 +64350,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>972</v>
       </c>
@@ -64416,7 +64416,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="345" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>974</v>
       </c>
@@ -64482,7 +64482,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="346" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>976</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>981</v>
       </c>
@@ -64612,7 +64612,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>985</v>
       </c>
@@ -64677,7 +64677,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>989</v>
       </c>
@@ -64742,7 +64742,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="350" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>990</v>
       </c>
@@ -64807,7 +64807,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="351" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>991</v>
       </c>
@@ -64872,7 +64872,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="352" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:22" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>992</v>
       </c>
@@ -64937,7 +64937,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>994</v>
       </c>
@@ -65002,7 +65002,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1041</v>
       </c>
@@ -65073,7 +65073,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1019</v>
       </c>
@@ -65139,7 +65139,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1023</v>
       </c>
@@ -65205,7 +65205,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
         <v>1024</v>
       </c>
@@ -65271,7 +65271,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1029</v>
       </c>
@@ -65338,7 +65338,7 @@
       </c>
       <c r="W358" s="2"/>
     </row>
-    <row r="359" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1032</v>
       </c>
@@ -65404,7 +65404,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1035</v>
       </c>
@@ -65470,7 +65470,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>494</v>
       </c>
@@ -65541,7 +65541,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>889</v>
       </c>
@@ -65612,7 +65612,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>314</v>
       </c>
@@ -65683,7 +65683,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1048</v>
       </c>
@@ -65749,7 +65749,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1051</v>
       </c>
@@ -65815,7 +65815,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1052</v>
       </c>
@@ -65881,7 +65881,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1056</v>
       </c>
@@ -65947,7 +65947,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1058</v>
       </c>
@@ -66013,7 +66013,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1060</v>
       </c>
@@ -66078,7 +66078,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1063</v>
       </c>
@@ -66143,7 +66143,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1065</v>
       </c>
@@ -66208,7 +66208,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1067</v>
       </c>
@@ -66273,7 +66273,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1068</v>
       </c>
@@ -66338,7 +66338,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1069</v>
       </c>
@@ -66403,7 +66403,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1097</v>
       </c>
@@ -66468,7 +66468,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="10" t="s">
         <v>1349</v>
       </c>
@@ -66542,7 +66542,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1106</v>
       </c>
@@ -66607,7 +66607,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1112</v>
       </c>
@@ -66672,7 +66672,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1070</v>
       </c>
@@ -66743,7 +66743,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1119</v>
       </c>
@@ -66808,7 +66808,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1125</v>
       </c>
@@ -66873,7 +66873,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1127</v>
       </c>
@@ -66938,7 +66938,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1131</v>
       </c>
@@ -67003,7 +67003,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1135</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1136</v>
       </c>
@@ -67133,7 +67133,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1138</v>
       </c>
@@ -67198,7 +67198,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="387" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1140</v>
       </c>
@@ -67263,7 +67263,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="388" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1141</v>
       </c>
@@ -67328,7 +67328,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="389" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1146</v>
       </c>
@@ -67393,7 +67393,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1147</v>
       </c>
@@ -67458,7 +67458,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="391" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1148</v>
       </c>
@@ -67523,7 +67523,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="392" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1150</v>
       </c>
@@ -67588,7 +67588,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="393" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1151</v>
       </c>
@@ -67653,7 +67653,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="394" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1152</v>
       </c>
@@ -67718,7 +67718,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="395" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1154</v>
       </c>
@@ -67783,7 +67783,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="396" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1155</v>
       </c>
@@ -67848,7 +67848,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="397" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1157</v>
       </c>
@@ -67913,7 +67913,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="398" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1158</v>
       </c>
@@ -67978,7 +67978,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="399" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1159</v>
       </c>
@@ -68043,7 +68043,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="400" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1160</v>
       </c>
@@ -68108,7 +68108,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1161</v>
       </c>
@@ -68173,7 +68173,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="402" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1162</v>
       </c>
@@ -68238,7 +68238,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="403" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1163</v>
       </c>
@@ -68303,7 +68303,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1164</v>
       </c>
@@ -68368,7 +68368,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="405" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1165</v>
       </c>
@@ -68431,7 +68431,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="406" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1170</v>
       </c>
@@ -68496,7 +68496,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="407" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1175</v>
       </c>
@@ -68561,7 +68561,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="408" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1177</v>
       </c>
@@ -68626,7 +68626,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="409" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1180</v>
       </c>
@@ -68691,7 +68691,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="410" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1182</v>
       </c>
@@ -68756,7 +68756,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="411" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1185</v>
       </c>
@@ -68821,7 +68821,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1188</v>
       </c>
@@ -68886,7 +68886,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="413" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1190</v>
       </c>
@@ -68951,7 +68951,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="414" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1193</v>
       </c>
@@ -69016,7 +69016,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="415" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1195</v>
       </c>
@@ -69081,7 +69081,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="416" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1197</v>
       </c>
@@ -69146,7 +69146,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="417" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1200</v>
       </c>
@@ -69211,7 +69211,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="418" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1203</v>
       </c>
@@ -69276,7 +69276,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="419" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1205</v>
       </c>
@@ -69341,7 +69341,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="420" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1208</v>
       </c>
@@ -69406,7 +69406,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1210</v>
       </c>
@@ -69471,7 +69471,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="422" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1211</v>
       </c>
@@ -69536,7 +69536,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="423" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1212</v>
       </c>
@@ -69601,7 +69601,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="424" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1213</v>
       </c>
@@ -69666,7 +69666,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="425" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1214</v>
       </c>
@@ -69731,7 +69731,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="426" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1215</v>
       </c>
@@ -69796,7 +69796,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="427" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1216</v>
       </c>
@@ -69861,7 +69861,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="428" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1217</v>
       </c>
@@ -69926,7 +69926,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="429" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1218</v>
       </c>
@@ -69991,7 +69991,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="430" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1219</v>
       </c>
@@ -70056,7 +70056,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="431" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1220</v>
       </c>
@@ -70121,7 +70121,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="432" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1221</v>
       </c>
@@ -70186,7 +70186,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1222</v>
       </c>
@@ -70251,7 +70251,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1223</v>
       </c>
@@ -70316,7 +70316,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1224</v>
       </c>
@@ -70381,7 +70381,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1225</v>
       </c>
@@ -70447,7 +70447,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1231</v>
       </c>
@@ -70513,7 +70513,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>426</v>
       </c>
@@ -70582,7 +70582,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>428</v>
       </c>
@@ -70653,7 +70653,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1241</v>
       </c>
@@ -70719,7 +70719,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1245</v>
       </c>
@@ -70785,7 +70785,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1249</v>
       </c>
@@ -70851,7 +70851,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1252</v>
       </c>
@@ -70917,7 +70917,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1253</v>
       </c>
@@ -70983,7 +70983,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1254</v>
       </c>
@@ -71049,7 +71049,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1255</v>
       </c>
@@ -71115,7 +71115,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1256</v>
       </c>
@@ -71181,7 +71181,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1257</v>
       </c>
@@ -71247,7 +71247,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1258</v>
       </c>
@@ -71313,7 +71313,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="450" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1259</v>
       </c>
@@ -71379,7 +71379,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1260</v>
       </c>
@@ -71445,7 +71445,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="452" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1261</v>
       </c>
@@ -71511,7 +71511,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1262</v>
       </c>
@@ -71577,7 +71577,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:22" ht="348" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1263</v>
       </c>
@@ -71643,7 +71643,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1269</v>
       </c>
@@ -71709,7 +71709,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="456" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1274</v>
       </c>
@@ -71775,7 +71775,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="457" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1278</v>
       </c>
@@ -71841,7 +71841,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="458" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1279</v>
       </c>
@@ -71907,7 +71907,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="459" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1281</v>
       </c>
@@ -71973,7 +71973,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="460" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1282</v>
       </c>
@@ -72039,7 +72039,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="461" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1283</v>
       </c>
@@ -72105,7 +72105,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="462" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1284</v>
       </c>
@@ -72171,7 +72171,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="463" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1285</v>
       </c>
@@ -72237,7 +72237,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="464" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1287</v>
       </c>
@@ -72303,7 +72303,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1289</v>
       </c>
@@ -72369,7 +72369,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1290</v>
       </c>
@@ -72435,7 +72435,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1113</v>
       </c>
@@ -72506,7 +72506,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:24" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="35" t="s">
         <v>1600</v>
       </c>
@@ -72574,7 +72574,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="35" t="s">
         <v>1601</v>
       </c>
@@ -72636,7 +72636,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="360" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:24" ht="377" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="35" t="s">
         <v>1602</v>
       </c>
@@ -72704,7 +72704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="35" t="s">
         <v>1603</v>
       </c>
@@ -72773,7 +72773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="35" t="s">
         <v>1604</v>
       </c>
@@ -72841,7 +72841,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>282</v>
       </c>
@@ -72912,7 +72912,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1361</v>
       </c>
@@ -72981,7 +72981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1543</v>
       </c>
@@ -73040,7 +73040,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>283</v>
       </c>
@@ -73111,7 +73111,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1587</v>
       </c>
@@ -73175,7 +73175,7 @@
       </c>
       <c r="V477" s="2"/>
     </row>
-    <row r="478" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="35" t="s">
         <v>1582</v>
       </c>
@@ -73246,7 +73246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:24" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1587</v>
       </c>
@@ -73317,7 +73317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>307</v>
       </c>
@@ -73391,7 +73391,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:24" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1037</v>
       </c>
@@ -73462,7 +73462,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="35" t="s">
         <v>1607</v>
       </c>
@@ -73531,7 +73531,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="35" t="s">
         <v>1608</v>
       </c>
@@ -73602,7 +73602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>57</v>
       </c>
@@ -73667,7 +73667,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="35" t="s">
         <v>1610</v>
       </c>
@@ -73738,7 +73738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>424</v>
       </c>
@@ -73809,7 +73809,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>422</v>
       </c>
@@ -73880,7 +73880,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>324</v>
       </c>
@@ -73954,7 +73954,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1102</v>
       </c>
@@ -74025,7 +74025,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1824</v>
       </c>
@@ -74087,199 +74087,199 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H491" s="8"/>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H492" s="8"/>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H493" s="8"/>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H494" s="8"/>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H495" s="8"/>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H496" s="8"/>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H497" s="8"/>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H498" s="8"/>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H499" s="8"/>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H500" s="8"/>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H501" s="8"/>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H502" s="8"/>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H505" s="8"/>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H506" s="8"/>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H507" s="8"/>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H508" s="8"/>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H509" s="8"/>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H510" s="8"/>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H511" s="8"/>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H512" s="8"/>
     </row>
-    <row r="513" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="513" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H513" s="8"/>
     </row>
-    <row r="514" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="514" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H514" s="8"/>
     </row>
-    <row r="515" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="515" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H515" s="8"/>
     </row>
-    <row r="516" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="516" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H516" s="8"/>
     </row>
-    <row r="517" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="517" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H517" s="8"/>
     </row>
-    <row r="518" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="518" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H518" s="8"/>
     </row>
-    <row r="519" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="519" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H519" s="8"/>
     </row>
-    <row r="520" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="520" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H520" s="8"/>
       <c r="Q520" s="9"/>
     </row>
-    <row r="521" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="521" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H521" s="8"/>
     </row>
-    <row r="522" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="522" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H522" s="8"/>
       <c r="Q522" s="9"/>
     </row>
-    <row r="523" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="523" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H523" s="8"/>
       <c r="Q523" s="9"/>
     </row>
-    <row r="524" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="524" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H524" s="8"/>
       <c r="Q524" s="9"/>
     </row>
-    <row r="525" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="525" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H525" s="8"/>
       <c r="Q525" s="9"/>
     </row>
-    <row r="526" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="526" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H526" s="8"/>
       <c r="Q526" s="9"/>
     </row>
-    <row r="527" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="527" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H527" s="8"/>
       <c r="Q527" s="9"/>
     </row>
-    <row r="528" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="528" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H528" s="8"/>
       <c r="Q528" s="9"/>
     </row>
-    <row r="529" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="529" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H529" s="8"/>
       <c r="Q529" s="9"/>
     </row>
-    <row r="530" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="530" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H530" s="8"/>
       <c r="Q530" s="9"/>
     </row>
-    <row r="531" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="531" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H531" s="8"/>
       <c r="Q531" s="9"/>
     </row>
-    <row r="532" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="532" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H532" s="8"/>
       <c r="Q532" s="9"/>
     </row>
-    <row r="533" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="533" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H533" s="8"/>
       <c r="Q533" s="9"/>
     </row>
-    <row r="534" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="534" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H534" s="8"/>
       <c r="Q534" s="9"/>
     </row>
-    <row r="535" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="535" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H535" s="8"/>
       <c r="Q535" s="9"/>
     </row>
-    <row r="536" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="536" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H536" s="8"/>
       <c r="Q536" s="9"/>
     </row>
-    <row r="537" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="537" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H537" s="8"/>
     </row>
-    <row r="538" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="538" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H538" s="8"/>
     </row>
-    <row r="539" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="539" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H539" s="8"/>
     </row>
-    <row r="540" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="540" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="541" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H541" s="8"/>
     </row>
-    <row r="542" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="542" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="543" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H543" s="8"/>
     </row>
-    <row r="544" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="544" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H544" s="8"/>
     </row>
-    <row r="545" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="545" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H545" s="8"/>
     </row>
-    <row r="546" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="546" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H546" s="8"/>
     </row>
-    <row r="547" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="547" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H547" s="8"/>
       <c r="Q547" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X490" xr:uid="{F8DAEBFD-78AC-4E24-A1EF-CD140122AED7}">
-    <filterColumn colId="0">
+    <filterColumn colId="4">
       <filters>
-        <filter val="MG570132"/>
+        <filter val="African lampeye iridovirus"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
+++ b/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19FF1F88-68CA-4281-AA89-A1F773F3A0E8}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2ED2F2-1204-4398-B829-1D209367E784}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="14064" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="13656" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main sheet" sheetId="1" r:id="rId1"/>
@@ -41691,39 +41691,39 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.36328125" customWidth="1"/>
-    <col min="2" max="2" width="39.36328125" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" customWidth="1"/>
-    <col min="4" max="4" width="55.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="47.90625" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.08984375" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" customWidth="1"/>
-    <col min="10" max="10" width="26.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="50.6328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.453125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.453125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="46.08984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="38.08984375" customWidth="1"/>
-    <col min="17" max="17" width="40.453125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21.453125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="42.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="47.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="46.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" customWidth="1"/>
+    <col min="17" max="17" width="40.44140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="42.109375" style="3" customWidth="1"/>
     <col min="20" max="20" width="48" style="2" customWidth="1"/>
-    <col min="21" max="21" width="49.6328125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="48" customWidth="1"/>
-    <col min="23" max="23" width="37.453125" customWidth="1"/>
-    <col min="24" max="24" width="18.54296875" customWidth="1"/>
+    <col min="23" max="23" width="37.44140625" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
@@ -41797,7 +41797,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1606</v>
       </c>
@@ -41869,7 +41869,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -42014,7 +42014,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>1605</v>
       </c>
@@ -42082,7 +42082,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -42156,7 +42156,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -42302,7 +42302,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -42376,7 +42376,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -42442,7 +42442,7 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>1609</v>
       </c>
@@ -42516,7 +42516,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>1619</v>
       </c>
@@ -42590,7 +42590,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>801</v>
       </c>
@@ -42664,7 +42664,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -42729,7 +42729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -42794,7 +42794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -42859,7 +42859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>87</v>
       </c>
@@ -42924,7 +42924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>88</v>
       </c>
@@ -42989,7 +42989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -43054,7 +43054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -43119,7 +43119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -43184,7 +43184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -43249,7 +43249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -43314,7 +43314,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -43379,7 +43379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -43444,7 +43444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -43509,7 +43509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -43578,7 +43578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -43647,7 +43647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -43713,7 +43713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="203" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -43778,7 +43778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="203.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="202.2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -43843,7 +43843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="203" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -43908,7 +43908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -43979,7 +43979,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1687</v>
       </c>
@@ -44045,7 +44045,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -44104,7 +44104,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -44169,7 +44169,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -44234,7 +44234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -44299,7 +44299,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -44358,7 +44358,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -44423,7 +44423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -44488,7 +44488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -44553,7 +44553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -44618,7 +44618,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -44813,7 +44813,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -44878,7 +44878,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -44943,7 +44943,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -45008,7 +45008,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -45073,7 +45073,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -45138,7 +45138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -45203,7 +45203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -45268,7 +45268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -45333,7 +45333,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>207</v>
       </c>
@@ -45398,7 +45398,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -45463,7 +45463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -45528,7 +45528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -45591,7 +45591,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -45656,7 +45656,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>225</v>
       </c>
@@ -45721,7 +45721,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>227</v>
       </c>
@@ -45786,7 +45786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -45851,7 +45851,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>231</v>
       </c>
@@ -45916,7 +45916,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>235</v>
       </c>
@@ -45981,7 +45981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -46046,7 +46046,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>239</v>
       </c>
@@ -46111,7 +46111,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>241</v>
       </c>
@@ -46176,7 +46176,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -46241,7 +46241,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>244</v>
       </c>
@@ -46306,7 +46306,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -46371,7 +46371,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>246</v>
       </c>
@@ -46436,7 +46436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>248</v>
       </c>
@@ -46501,7 +46501,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -46566,7 +46566,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>250</v>
       </c>
@@ -46631,7 +46631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>252</v>
       </c>
@@ -46696,7 +46696,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -46761,7 +46761,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -46827,7 +46827,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>267</v>
       </c>
@@ -46893,7 +46893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>275</v>
       </c>
@@ -46959,7 +46959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -47025,7 +47025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -47157,7 +47157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>290</v>
       </c>
@@ -47223,7 +47223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>291</v>
       </c>
@@ -47289,7 +47289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -47355,7 +47355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -47421,7 +47421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>294</v>
       </c>
@@ -47487,7 +47487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>295</v>
       </c>
@@ -47553,7 +47553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -47619,7 +47619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -47685,7 +47685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
         <v>1611</v>
       </c>
@@ -47759,7 +47759,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -47833,7 +47833,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
         <v>1581</v>
       </c>
@@ -47896,7 +47896,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>309</v>
       </c>
@@ -47962,7 +47962,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>310</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
         <v>1691</v>
       </c>
@@ -48099,7 +48099,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -48165,7 +48165,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>321</v>
       </c>
@@ -48231,7 +48231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
         <v>1612</v>
       </c>
@@ -48305,7 +48305,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>328</v>
       </c>
@@ -48371,7 +48371,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>329</v>
       </c>
@@ -48437,7 +48437,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>333</v>
       </c>
@@ -48503,7 +48503,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>337</v>
       </c>
@@ -48569,7 +48569,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>342</v>
       </c>
@@ -48635,7 +48635,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>343</v>
       </c>
@@ -48701,7 +48701,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>344</v>
       </c>
@@ -48767,7 +48767,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>351</v>
       </c>
@@ -48833,7 +48833,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>352</v>
       </c>
@@ -48899,7 +48899,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>353</v>
       </c>
@@ -48965,7 +48965,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>354</v>
       </c>
@@ -49031,7 +49031,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>355</v>
       </c>
@@ -49097,7 +49097,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>356</v>
       </c>
@@ -49163,7 +49163,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>363</v>
       </c>
@@ -49229,7 +49229,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>367</v>
       </c>
@@ -49295,7 +49295,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>370</v>
       </c>
@@ -49361,7 +49361,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>376</v>
       </c>
@@ -49427,7 +49427,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>378</v>
       </c>
@@ -49493,7 +49493,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>379</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>381</v>
       </c>
@@ -49625,7 +49625,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>382</v>
       </c>
@@ -49691,7 +49691,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>383</v>
       </c>
@@ -49757,7 +49757,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -49823,7 +49823,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>385</v>
       </c>
@@ -49885,7 +49885,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1232</v>
       </c>
@@ -49959,7 +49959,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1237</v>
       </c>
@@ -50033,7 +50033,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>406</v>
       </c>
@@ -50099,7 +50099,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1438</v>
       </c>
@@ -50168,7 +50168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -50234,7 +50234,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>412</v>
       </c>
@@ -50300,7 +50300,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>414</v>
       </c>
@@ -50366,7 +50366,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>416</v>
       </c>
@@ -50432,7 +50432,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>418</v>
       </c>
@@ -50498,7 +50498,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -50564,7 +50564,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -50635,7 +50635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>400</v>
       </c>
@@ -50709,7 +50709,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>402</v>
       </c>
@@ -50783,7 +50783,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>62</v>
       </c>
@@ -50857,7 +50857,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>430</v>
       </c>
@@ -50923,7 +50923,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>432</v>
       </c>
@@ -50989,7 +50989,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>434</v>
       </c>
@@ -51055,7 +51055,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>436</v>
       </c>
@@ -51121,7 +51121,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>438</v>
       </c>
@@ -51187,7 +51187,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>440</v>
       </c>
@@ -51253,7 +51253,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>442</v>
       </c>
@@ -51319,7 +51319,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -51385,7 +51385,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -51451,7 +51451,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>448</v>
       </c>
@@ -51517,7 +51517,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>450</v>
       </c>
@@ -51583,7 +51583,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>452</v>
       </c>
@@ -51649,7 +51649,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>454</v>
       </c>
@@ -51715,7 +51715,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>456</v>
       </c>
@@ -51781,7 +51781,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -51847,7 +51847,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -51913,7 +51913,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>460</v>
       </c>
@@ -51979,7 +51979,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>461</v>
       </c>
@@ -52045,7 +52045,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -52111,7 +52111,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>463</v>
       </c>
@@ -52177,7 +52177,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>464</v>
       </c>
@@ -52243,7 +52243,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>465</v>
       </c>
@@ -52309,7 +52309,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>466</v>
       </c>
@@ -52375,7 +52375,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>467</v>
       </c>
@@ -52441,7 +52441,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>468</v>
       </c>
@@ -52507,7 +52507,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>469</v>
       </c>
@@ -52573,7 +52573,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>470</v>
       </c>
@@ -52639,7 +52639,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>471</v>
       </c>
@@ -52705,7 +52705,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>472</v>
       </c>
@@ -52771,7 +52771,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>473</v>
       </c>
@@ -52837,7 +52837,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>474</v>
       </c>
@@ -52903,7 +52903,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>475</v>
       </c>
@@ -52969,7 +52969,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -53035,7 +53035,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>477</v>
       </c>
@@ -53101,7 +53101,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>478</v>
       </c>
@@ -53167,7 +53167,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>479</v>
       </c>
@@ -53233,7 +53233,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>480</v>
       </c>
@@ -53299,7 +53299,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>481</v>
       </c>
@@ -53365,7 +53365,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>482</v>
       </c>
@@ -53431,7 +53431,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>483</v>
       </c>
@@ -53497,7 +53497,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>484</v>
       </c>
@@ -53563,7 +53563,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>485</v>
       </c>
@@ -53629,7 +53629,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>486</v>
       </c>
@@ -53695,7 +53695,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>488</v>
       </c>
@@ -53761,7 +53761,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>489</v>
       </c>
@@ -53827,7 +53827,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>490</v>
       </c>
@@ -53893,7 +53893,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>491</v>
       </c>
@@ -53959,7 +53959,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>493</v>
       </c>
@@ -54025,7 +54025,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>67</v>
       </c>
@@ -54099,7 +54099,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>495</v>
       </c>
@@ -54165,7 +54165,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>497</v>
       </c>
@@ -54227,7 +54227,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>498</v>
       </c>
@@ -54291,7 +54291,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>499</v>
       </c>
@@ -54357,7 +54357,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>500</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>501</v>
       </c>
@@ -54471,7 +54471,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>502</v>
       </c>
@@ -54528,7 +54528,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>503</v>
       </c>
@@ -54585,7 +54585,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>504</v>
       </c>
@@ -54642,7 +54642,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>505</v>
       </c>
@@ -54699,7 +54699,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>506</v>
       </c>
@@ -54756,7 +54756,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>507</v>
       </c>
@@ -54813,7 +54813,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>508</v>
       </c>
@@ -54879,7 +54879,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>509</v>
       </c>
@@ -54945,7 +54945,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>511</v>
       </c>
@@ -55011,7 +55011,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>513</v>
       </c>
@@ -55074,7 +55074,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>514</v>
       </c>
@@ -55140,7 +55140,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>516</v>
       </c>
@@ -55206,7 +55206,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>517</v>
       </c>
@@ -55272,7 +55272,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>518</v>
       </c>
@@ -55338,7 +55338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>520</v>
       </c>
@@ -55404,7 +55404,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -55470,7 +55470,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>522</v>
       </c>
@@ -55536,7 +55536,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>524</v>
       </c>
@@ -55602,7 +55602,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>525</v>
       </c>
@@ -55668,7 +55668,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>526</v>
       </c>
@@ -55734,7 +55734,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>528</v>
       </c>
@@ -55800,7 +55800,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>529</v>
       </c>
@@ -55866,7 +55866,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>530</v>
       </c>
@@ -55932,7 +55932,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>532</v>
       </c>
@@ -55998,7 +55998,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>533</v>
       </c>
@@ -56064,7 +56064,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>534</v>
       </c>
@@ -56130,7 +56130,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>536</v>
       </c>
@@ -56196,7 +56196,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>537</v>
       </c>
@@ -56262,7 +56262,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>538</v>
       </c>
@@ -56328,7 +56328,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>540</v>
       </c>
@@ -56394,7 +56394,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>541</v>
       </c>
@@ -56460,7 +56460,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>542</v>
       </c>
@@ -56526,7 +56526,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>544</v>
       </c>
@@ -56592,7 +56592,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>545</v>
       </c>
@@ -56655,7 +56655,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>546</v>
       </c>
@@ -56720,7 +56720,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -56785,7 +56785,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>548</v>
       </c>
@@ -56850,7 +56850,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>549</v>
       </c>
@@ -56915,7 +56915,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>550</v>
       </c>
@@ -56980,7 +56980,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>551</v>
       </c>
@@ -57045,7 +57045,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>552</v>
       </c>
@@ -57110,7 +57110,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>553</v>
       </c>
@@ -57175,7 +57175,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>554</v>
       </c>
@@ -57240,7 +57240,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>555</v>
       </c>
@@ -57305,7 +57305,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>556</v>
       </c>
@@ -57370,7 +57370,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>557</v>
       </c>
@@ -57435,7 +57435,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>558</v>
       </c>
@@ -57500,7 +57500,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>559</v>
       </c>
@@ -57565,7 +57565,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>560</v>
       </c>
@@ -57630,7 +57630,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>561</v>
       </c>
@@ -57695,7 +57695,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>562</v>
       </c>
@@ -57760,7 +57760,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>563</v>
       </c>
@@ -57825,7 +57825,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>564</v>
       </c>
@@ -57888,7 +57888,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>565</v>
       </c>
@@ -57953,7 +57953,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>566</v>
       </c>
@@ -58018,7 +58018,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>567</v>
       </c>
@@ -58083,7 +58083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>568</v>
       </c>
@@ -58148,7 +58148,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>569</v>
       </c>
@@ -58213,7 +58213,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>570</v>
       </c>
@@ -58278,7 +58278,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>571</v>
       </c>
@@ -58343,7 +58343,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>572</v>
       </c>
@@ -58408,7 +58408,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>573</v>
       </c>
@@ -58473,7 +58473,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>574</v>
       </c>
@@ -58538,7 +58538,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>575</v>
       </c>
@@ -58603,7 +58603,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>576</v>
       </c>
@@ -58668,7 +58668,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>577</v>
       </c>
@@ -58733,7 +58733,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>578</v>
       </c>
@@ -58798,7 +58798,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>579</v>
       </c>
@@ -58863,7 +58863,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>580</v>
       </c>
@@ -58928,7 +58928,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>581</v>
       </c>
@@ -58993,7 +58993,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>582</v>
       </c>
@@ -59058,7 +59058,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>583</v>
       </c>
@@ -59123,7 +59123,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>585</v>
       </c>
@@ -59192,7 +59192,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>586</v>
       </c>
@@ -59261,7 +59261,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>587</v>
       </c>
@@ -59327,7 +59327,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>588</v>
       </c>
@@ -59393,7 +59393,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>589</v>
       </c>
@@ -59459,7 +59459,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:24" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>590</v>
       </c>
@@ -59525,7 +59525,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="261" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:24" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>591</v>
       </c>
@@ -59591,7 +59591,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>592</v>
       </c>
@@ -59657,7 +59657,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>593</v>
       </c>
@@ -59723,7 +59723,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>594</v>
       </c>
@@ -59789,7 +59789,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>595</v>
       </c>
@@ -59855,7 +59855,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:24" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>596</v>
       </c>
@@ -59921,7 +59921,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>597</v>
       </c>
@@ -59990,7 +59990,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>598</v>
       </c>
@@ -60056,7 +60056,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>599</v>
       </c>
@@ -60122,7 +60122,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>600</v>
       </c>
@@ -60188,7 +60188,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>601</v>
       </c>
@@ -60254,7 +60254,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>602</v>
       </c>
@@ -60320,7 +60320,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>603</v>
       </c>
@@ -60389,7 +60389,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>604</v>
       </c>
@@ -60458,7 +60458,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>605</v>
       </c>
@@ -60527,7 +60527,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>606</v>
       </c>
@@ -60596,7 +60596,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>799</v>
       </c>
@@ -60662,7 +60662,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1045</v>
       </c>
@@ -60733,7 +60733,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>803</v>
       </c>
@@ -60799,7 +60799,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>804</v>
       </c>
@@ -60865,7 +60865,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>805</v>
       </c>
@@ -60931,7 +60931,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>806</v>
       </c>
@@ -60997,7 +60997,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>807</v>
       </c>
@@ -61063,7 +61063,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>808</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>810</v>
       </c>
@@ -61194,7 +61194,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>811</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>812</v>
       </c>
@@ -61326,7 +61326,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:22" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>813</v>
       </c>
@@ -61391,7 +61391,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>814</v>
       </c>
@@ -61457,7 +61457,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>815</v>
       </c>
@@ -61522,7 +61522,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:22" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>817</v>
       </c>
@@ -61587,7 +61587,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>819</v>
       </c>
@@ -61652,7 +61652,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>821</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>823</v>
       </c>
@@ -61782,7 +61782,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>825</v>
       </c>
@@ -61847,7 +61847,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>827</v>
       </c>
@@ -61912,7 +61912,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>829</v>
       </c>
@@ -61977,7 +61977,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>831</v>
       </c>
@@ -62042,7 +62042,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>833</v>
       </c>
@@ -62107,7 +62107,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>835</v>
       </c>
@@ -62172,7 +62172,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:25" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>872</v>
       </c>
@@ -62239,7 +62239,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:25" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>874</v>
       </c>
@@ -62308,7 +62308,7 @@
       </c>
       <c r="X312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>875</v>
       </c>
@@ -62374,7 +62374,7 @@
       </c>
       <c r="X313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>876</v>
       </c>
@@ -62440,7 +62440,7 @@
       </c>
       <c r="X314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>877</v>
       </c>
@@ -62504,7 +62504,7 @@
       </c>
       <c r="X315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>878</v>
       </c>
@@ -62568,7 +62568,7 @@
       </c>
       <c r="X316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>879</v>
       </c>
@@ -62634,7 +62634,7 @@
       </c>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>880</v>
       </c>
@@ -62701,7 +62701,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>882</v>
       </c>
@@ -62768,7 +62768,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>885</v>
       </c>
@@ -62832,7 +62832,7 @@
       </c>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>886</v>
       </c>
@@ -62899,7 +62899,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1699</v>
       </c>
@@ -62970,7 +62970,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="261" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:25" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>891</v>
       </c>
@@ -63036,7 +63036,7 @@
       </c>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>893</v>
       </c>
@@ -63102,7 +63102,7 @@
       </c>
       <c r="X324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>894</v>
       </c>
@@ -63168,7 +63168,7 @@
       </c>
       <c r="X325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>920</v>
       </c>
@@ -63234,7 +63234,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>922</v>
       </c>
@@ -63300,7 +63300,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>923</v>
       </c>
@@ -63366,7 +63366,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>930</v>
       </c>
@@ -63431,7 +63431,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>932</v>
       </c>
@@ -63496,7 +63496,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:25" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>933</v>
       </c>
@@ -63561,7 +63561,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>938</v>
       </c>
@@ -63626,7 +63626,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>945</v>
       </c>
@@ -63690,7 +63690,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>948</v>
       </c>
@@ -63756,7 +63756,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>954</v>
       </c>
@@ -63822,7 +63822,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:25" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>956</v>
       </c>
@@ -63888,7 +63888,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>958</v>
       </c>
@@ -63954,7 +63954,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>960</v>
       </c>
@@ -64020,7 +64020,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="339" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>962</v>
       </c>
@@ -64086,7 +64086,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="340" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>964</v>
       </c>
@@ -64152,7 +64152,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="341" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>966</v>
       </c>
@@ -64218,7 +64218,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="342" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>968</v>
       </c>
@@ -64284,7 +64284,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="343" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>970</v>
       </c>
@@ -64350,7 +64350,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>972</v>
       </c>
@@ -64416,7 +64416,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="345" spans="1:22" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>974</v>
       </c>
@@ -64482,7 +64482,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="346" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>976</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>981</v>
       </c>
@@ -64612,7 +64612,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>985</v>
       </c>
@@ -64677,7 +64677,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>989</v>
       </c>
@@ -64742,7 +64742,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="350" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>990</v>
       </c>
@@ -64807,7 +64807,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="351" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>991</v>
       </c>
@@ -64872,7 +64872,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="352" spans="1:22" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:22" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>992</v>
       </c>
@@ -64937,7 +64937,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>994</v>
       </c>
@@ -65002,7 +65002,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1041</v>
       </c>
@@ -65073,7 +65073,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1019</v>
       </c>
@@ -65139,7 +65139,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1023</v>
       </c>
@@ -65205,7 +65205,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>1024</v>
       </c>
@@ -65271,7 +65271,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1029</v>
       </c>
@@ -65338,7 +65338,7 @@
       </c>
       <c r="W358" s="2"/>
     </row>
-    <row r="359" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1032</v>
       </c>
@@ -65404,7 +65404,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1035</v>
       </c>
@@ -65470,7 +65470,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>494</v>
       </c>
@@ -65541,7 +65541,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:24" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>889</v>
       </c>
@@ -65612,7 +65612,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>314</v>
       </c>
@@ -65683,7 +65683,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1048</v>
       </c>
@@ -65749,7 +65749,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1051</v>
       </c>
@@ -65815,7 +65815,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1052</v>
       </c>
@@ -65881,7 +65881,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1056</v>
       </c>
@@ -65947,7 +65947,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1058</v>
       </c>
@@ -66013,7 +66013,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1060</v>
       </c>
@@ -66078,7 +66078,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1063</v>
       </c>
@@ -66143,7 +66143,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1065</v>
       </c>
@@ -66208,7 +66208,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1067</v>
       </c>
@@ -66273,7 +66273,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1068</v>
       </c>
@@ -66338,7 +66338,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1069</v>
       </c>
@@ -66403,7 +66403,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1097</v>
       </c>
@@ -66468,7 +66468,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="10" t="s">
         <v>1349</v>
       </c>
@@ -66542,7 +66542,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1106</v>
       </c>
@@ -66607,7 +66607,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1112</v>
       </c>
@@ -66672,7 +66672,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1070</v>
       </c>
@@ -66743,7 +66743,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1119</v>
       </c>
@@ -66808,7 +66808,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1125</v>
       </c>
@@ -66873,7 +66873,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1127</v>
       </c>
@@ -66938,7 +66938,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1131</v>
       </c>
@@ -67003,7 +67003,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1135</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1136</v>
       </c>
@@ -67133,7 +67133,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1138</v>
       </c>
@@ -67198,7 +67198,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="387" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1140</v>
       </c>
@@ -67263,7 +67263,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="388" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1141</v>
       </c>
@@ -67328,7 +67328,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="389" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1146</v>
       </c>
@@ -67393,7 +67393,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1147</v>
       </c>
@@ -67458,7 +67458,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="391" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1148</v>
       </c>
@@ -67523,7 +67523,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="392" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1150</v>
       </c>
@@ -67588,7 +67588,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="393" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1151</v>
       </c>
@@ -67653,7 +67653,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="394" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1152</v>
       </c>
@@ -67718,7 +67718,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="395" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1154</v>
       </c>
@@ -67783,7 +67783,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="396" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1155</v>
       </c>
@@ -67848,7 +67848,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="397" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1157</v>
       </c>
@@ -67913,7 +67913,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="398" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1158</v>
       </c>
@@ -67978,7 +67978,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="399" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1159</v>
       </c>
@@ -68043,7 +68043,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="400" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1160</v>
       </c>
@@ -68108,7 +68108,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1161</v>
       </c>
@@ -68173,7 +68173,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="402" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1162</v>
       </c>
@@ -68238,7 +68238,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="403" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1163</v>
       </c>
@@ -68303,7 +68303,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1164</v>
       </c>
@@ -68368,7 +68368,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="405" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1165</v>
       </c>
@@ -68431,7 +68431,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="406" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1170</v>
       </c>
@@ -68496,7 +68496,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="407" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1175</v>
       </c>
@@ -68561,7 +68561,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="408" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1177</v>
       </c>
@@ -68626,7 +68626,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="409" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1180</v>
       </c>
@@ -68691,7 +68691,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="410" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1182</v>
       </c>
@@ -68756,7 +68756,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="411" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1185</v>
       </c>
@@ -68821,7 +68821,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1188</v>
       </c>
@@ -68886,7 +68886,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="413" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1190</v>
       </c>
@@ -68951,7 +68951,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="414" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1193</v>
       </c>
@@ -69016,7 +69016,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="415" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1195</v>
       </c>
@@ -69081,7 +69081,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="416" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1197</v>
       </c>
@@ -69146,7 +69146,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="417" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1200</v>
       </c>
@@ -69211,7 +69211,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="418" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1203</v>
       </c>
@@ -69276,7 +69276,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="419" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1205</v>
       </c>
@@ -69341,7 +69341,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="420" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1208</v>
       </c>
@@ -69406,7 +69406,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1210</v>
       </c>
@@ -69471,7 +69471,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="422" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1211</v>
       </c>
@@ -69536,7 +69536,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="423" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1212</v>
       </c>
@@ -69601,7 +69601,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="424" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1213</v>
       </c>
@@ -69666,7 +69666,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="425" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1214</v>
       </c>
@@ -69731,7 +69731,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="426" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1215</v>
       </c>
@@ -69796,7 +69796,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="427" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1216</v>
       </c>
@@ -69861,7 +69861,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="428" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1217</v>
       </c>
@@ -69926,7 +69926,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="429" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1218</v>
       </c>
@@ -69991,7 +69991,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="430" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1219</v>
       </c>
@@ -70056,7 +70056,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="431" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1220</v>
       </c>
@@ -70121,7 +70121,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="432" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1221</v>
       </c>
@@ -70186,7 +70186,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1222</v>
       </c>
@@ -70251,7 +70251,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1223</v>
       </c>
@@ -70316,7 +70316,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1224</v>
       </c>
@@ -70381,7 +70381,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1225</v>
       </c>
@@ -70447,7 +70447,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:24" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1231</v>
       </c>
@@ -70513,7 +70513,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>426</v>
       </c>
@@ -70582,7 +70582,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>428</v>
       </c>
@@ -70653,7 +70653,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1241</v>
       </c>
@@ -70719,7 +70719,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1245</v>
       </c>
@@ -70785,7 +70785,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1249</v>
       </c>
@@ -70851,7 +70851,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1252</v>
       </c>
@@ -70917,7 +70917,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1253</v>
       </c>
@@ -70983,7 +70983,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1254</v>
       </c>
@@ -71049,7 +71049,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1255</v>
       </c>
@@ -71115,7 +71115,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1256</v>
       </c>
@@ -71181,7 +71181,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1257</v>
       </c>
@@ -71247,7 +71247,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1258</v>
       </c>
@@ -71313,7 +71313,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="450" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1259</v>
       </c>
@@ -71379,7 +71379,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1260</v>
       </c>
@@ -71445,7 +71445,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="452" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1261</v>
       </c>
@@ -71511,7 +71511,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1262</v>
       </c>
@@ -71577,7 +71577,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="348" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:22" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1263</v>
       </c>
@@ -71643,7 +71643,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1269</v>
       </c>
@@ -71709,7 +71709,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="456" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1274</v>
       </c>
@@ -71775,7 +71775,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="457" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1278</v>
       </c>
@@ -71841,7 +71841,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="458" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1279</v>
       </c>
@@ -71907,7 +71907,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="459" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1281</v>
       </c>
@@ -71973,7 +71973,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="460" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1282</v>
       </c>
@@ -72039,7 +72039,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="461" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1283</v>
       </c>
@@ -72105,7 +72105,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="462" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1284</v>
       </c>
@@ -72171,7 +72171,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="463" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1285</v>
       </c>
@@ -72237,7 +72237,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="464" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1287</v>
       </c>
@@ -72303,7 +72303,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1289</v>
       </c>
@@ -72369,7 +72369,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1290</v>
       </c>
@@ -72435,7 +72435,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1113</v>
       </c>
@@ -72506,7 +72506,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="35" t="s">
         <v>1600</v>
       </c>
@@ -72574,7 +72574,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="35" t="s">
         <v>1601</v>
       </c>
@@ -72636,7 +72636,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="377" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:24" ht="360" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="35" t="s">
         <v>1602</v>
       </c>
@@ -72704,7 +72704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:24" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="35" t="s">
         <v>1603</v>
       </c>
@@ -72773,7 +72773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="35" t="s">
         <v>1604</v>
       </c>
@@ -72841,7 +72841,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>282</v>
       </c>
@@ -72912,7 +72912,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:24" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1361</v>
       </c>
@@ -72981,7 +72981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1543</v>
       </c>
@@ -73040,7 +73040,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>283</v>
       </c>
@@ -73111,7 +73111,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:24" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1587</v>
       </c>
@@ -73175,7 +73175,7 @@
       </c>
       <c r="V477" s="2"/>
     </row>
-    <row r="478" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:24" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="35" t="s">
         <v>1582</v>
       </c>
@@ -73246,7 +73246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:24" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1587</v>
       </c>
@@ -73317,7 +73317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:24" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>307</v>
       </c>
@@ -73391,7 +73391,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:24" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1037</v>
       </c>
@@ -73462,7 +73462,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="35" t="s">
         <v>1607</v>
       </c>
@@ -73531,7 +73531,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="35" t="s">
         <v>1608</v>
       </c>
@@ -73602,7 +73602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>57</v>
       </c>
@@ -73667,7 +73667,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="35" t="s">
         <v>1610</v>
       </c>
@@ -73738,7 +73738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>424</v>
       </c>
@@ -73809,7 +73809,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:24" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>422</v>
       </c>
@@ -73880,7 +73880,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:24" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>324</v>
       </c>
@@ -73954,7 +73954,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:24" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1102</v>
       </c>
@@ -74025,7 +74025,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1824</v>
       </c>
@@ -74087,199 +74087,199 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H491" s="8"/>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H492" s="8"/>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H493" s="8"/>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H494" s="8"/>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H495" s="8"/>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H496" s="8"/>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H497" s="8"/>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H498" s="8"/>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H499" s="8"/>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H500" s="8"/>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H501" s="8"/>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H502" s="8"/>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H505" s="8"/>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H506" s="8"/>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H507" s="8"/>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H508" s="8"/>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H509" s="8"/>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H510" s="8"/>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H511" s="8"/>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H512" s="8"/>
     </row>
-    <row r="513" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="513" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H513" s="8"/>
     </row>
-    <row r="514" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="514" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H514" s="8"/>
     </row>
-    <row r="515" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="515" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H515" s="8"/>
     </row>
-    <row r="516" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="516" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H516" s="8"/>
     </row>
-    <row r="517" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="517" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H517" s="8"/>
     </row>
-    <row r="518" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="518" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H518" s="8"/>
     </row>
-    <row r="519" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="519" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H519" s="8"/>
     </row>
-    <row r="520" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="520" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H520" s="8"/>
       <c r="Q520" s="9"/>
     </row>
-    <row r="521" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="521" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H521" s="8"/>
     </row>
-    <row r="522" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="522" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H522" s="8"/>
       <c r="Q522" s="9"/>
     </row>
-    <row r="523" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="523" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H523" s="8"/>
       <c r="Q523" s="9"/>
     </row>
-    <row r="524" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="524" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H524" s="8"/>
       <c r="Q524" s="9"/>
     </row>
-    <row r="525" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="525" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H525" s="8"/>
       <c r="Q525" s="9"/>
     </row>
-    <row r="526" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="526" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H526" s="8"/>
       <c r="Q526" s="9"/>
     </row>
-    <row r="527" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="527" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H527" s="8"/>
       <c r="Q527" s="9"/>
     </row>
-    <row r="528" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="528" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H528" s="8"/>
       <c r="Q528" s="9"/>
     </row>
-    <row r="529" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="529" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H529" s="8"/>
       <c r="Q529" s="9"/>
     </row>
-    <row r="530" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="530" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H530" s="8"/>
       <c r="Q530" s="9"/>
     </row>
-    <row r="531" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="531" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H531" s="8"/>
       <c r="Q531" s="9"/>
     </row>
-    <row r="532" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="532" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H532" s="8"/>
       <c r="Q532" s="9"/>
     </row>
-    <row r="533" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="533" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H533" s="8"/>
       <c r="Q533" s="9"/>
     </row>
-    <row r="534" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="534" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H534" s="8"/>
       <c r="Q534" s="9"/>
     </row>
-    <row r="535" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="535" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H535" s="8"/>
       <c r="Q535" s="9"/>
     </row>
-    <row r="536" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="536" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H536" s="8"/>
       <c r="Q536" s="9"/>
     </row>
-    <row r="537" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="537" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H537" s="8"/>
     </row>
-    <row r="538" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="538" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H538" s="8"/>
     </row>
-    <row r="539" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="539" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H539" s="8"/>
     </row>
-    <row r="540" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="540" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="541" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H541" s="8"/>
     </row>
-    <row r="542" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="542" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="543" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H543" s="8"/>
     </row>
-    <row r="544" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="544" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H544" s="8"/>
     </row>
-    <row r="545" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="545" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H545" s="8"/>
     </row>
-    <row r="546" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="546" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H546" s="8"/>
     </row>
-    <row r="547" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="547" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H547" s="8"/>
       <c r="Q547" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X490" xr:uid="{F8DAEBFD-78AC-4E24-A1EF-CD140122AED7}">
-    <filterColumn colId="4">
+    <filterColumn colId="0">
       <filters>
-        <filter val="African lampeye iridovirus"/>
+        <filter val="KC244182"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
+++ b/20240807_Genetic information spreadsheet_megalocytiviruses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2ED2F2-1204-4398-B829-1D209367E784}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{BBE3224F-4570-4915-A6DB-5FBC4F9097C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6799DA-BCB5-48D5-8825-4B7067C6CD8D}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="13656" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
+    <workbookView minimized="1" xWindow="2712" yWindow="1236" windowWidth="15684" windowHeight="13440" xr2:uid="{CD6C468C-256F-45C2-B81B-3E7578C677C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main sheet" sheetId="1" r:id="rId1"/>
@@ -41691,9 +41691,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42590,7 +42590,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="216" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>801</v>
       </c>
@@ -66468,7 +66468,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A376" s="10" t="s">
         <v>1349</v>
       </c>
@@ -74279,7 +74279,7 @@
   <autoFilter ref="A1:X490" xr:uid="{F8DAEBFD-78AC-4E24-A1EF-CD140122AED7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="KC244182"/>
+        <filter val="_x0009__x000a_NC_005946"/>
       </filters>
     </filterColumn>
   </autoFilter>
